--- a/data/IEEE9/ieee18_3/ieee18_3_2025.xlsx
+++ b/data/IEEE9/ieee18_3/ieee18_3_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9312560C-41ED-4798-B482-67D8641C948C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26692701-3143-4416-9034-1BB0B6791316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27525" yWindow="4305" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28560" yWindow="3270" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7724,18 +7724,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
       <sheetData sheetId="27">
         <row r="2">
           <cell r="B2">
@@ -8898,7 +8898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4885245901639338E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1743927341440371E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2218634173931116E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.70672997456298225</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7449199042732777</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2014006073835883</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.4535250843410785</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5989559809388747</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.4243755917629763</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8269860285542634</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.97109186880529608</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.21210925847165812</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4064669543877486E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5004239182081583E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.2703666453323571E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,99 +13583,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5963033885587485</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4693835408087361</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4052250255042749</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2489292133279548</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8135680291080329</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.4582012144018996</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2264142387265826</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.959393606570536</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9958503499699458</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7164455539185526</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8268594684877302</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6643789390303803</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6071103008477077</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5515523717864066</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9945260958138027</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1752962990900047</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2967953026813128</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6202029888839347</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.4173578797403383</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.4229412297342954</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6285460344715954</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7789760791106723</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7419785310734186</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.098632544718436</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.7065573770491797E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1116698668129589E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5610069350134388E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.71365869980379582</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6602150545512739</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2694851622511218</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6558776686166317</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7845956938630803</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2627505523121112</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.73563672712655</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.94136456669901147</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.21866933863057539</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3924022848438712E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3778541182959933E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.2057236902258382E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5975409836065571E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1116698668129589E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.3236064726792094E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65822889787728733</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7788018441620792</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3829594203636781</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5547013764788549</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7315557758847357</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3781970090627289</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7721764476976354</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.95127366740110642</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22960280556210416</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4627256325632585E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5249378781905908E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.2703666453323571E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7260928961748631E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0662887446283258E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,55 +13914,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.712674763982654E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.33604317417945723</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.83010752727563697</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1801322843705835</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2267625421705393</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3259979494586096</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1429199218311172</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.90435808413436036</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.5004095854557904</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.10714797592898194</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.1729814673775183E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2379549791128626E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0705403675596596E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.7428961748633879E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1743927341440371E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,55 +14184,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2218634173931116E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.70672997456298225</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6432740846068732</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1787057557610767</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6305835955821872</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5459160629605302</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3551077177126052</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8452558888398061</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0206373723157705</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.21210925847165812</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.420531623931626E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5004239182081583E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.4642955106519151E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,99 +14257,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5229094418534674</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.3025862551929315</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2087697355713356</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.3801990805331248</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7851481500261341</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.4080338426794112</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1823268280587298</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8802261881232414</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.918341598514802</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8580080738293612</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8268594684877302</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.785739903334679</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.623343738230008</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6635200687194462</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0348195522948895</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2874249743008299</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2967953026813128</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6461455927342707</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3680240454599235</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5238971143065578</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5488931243360922</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6972414885485936</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5574222837896308</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.979454369921573</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.6338797814207646E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9862241321508028E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,55 +14386,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5610069350134388E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.72058742504460938</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6263331146624724</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1787057557610767</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6052895225477433</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6519958989172192</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2165719696118638</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7539065874120927</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.95127366740110642</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.20773587169904661</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3783376152999936E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3778541182959933E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.6582243759714732E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.6338797814207646E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1953003565877297E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,55 +14487,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2218634173931116E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.72751615028542294</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6771560244956747</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3829594203636781</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.4535250843410785</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5193961039713582</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2165719696118638</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7721764476976354</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0404555737199601</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22741611217579841</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.420531623931626E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.4268820382608591E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.2703666453323571E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7624316939890707E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0871963670720186E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,55 +14588,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6278888845775719E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.34990062466108435</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.84704849722003772</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1460900069368165</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2267625421705393</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2994779904694373</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1890985045313645</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.87695329370604636</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.5004095854557904</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.1137080560878992</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.1026581196581302E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2134410191304296E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.1028618451129191E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5248633879781413E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0907622443692663E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5610069350134388E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.69287252408135513</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6940969944400754</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1787057557610767</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6052895225477433</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6519958989172192</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3320184263624819</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8635257491253487</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0206373723157705</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.20992256508535237</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4486609630193811E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5249378781905908E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.528938465758434E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,99 +14931,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.6696973352640292</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4360240836855755</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.1105420906048664</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2817466801292472</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9272475454356304</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.4582012144018996</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1382394173908761</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.900018042735065</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8408328470596582</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8226174438516591</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6528728524412795</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6990535002601801</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5908768634654078</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5515523717864066</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9945260958138027</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2425735042164998</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.22648524239515</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5942603850335986</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3433571283197159</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6248529988788203</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7081989446070982</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6155068979865153</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5310571056062319</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.979454369921573</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5975409836065571E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9862241321508028E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2557777691551437E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.70672997456298225</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6602150545512739</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.360264568741167</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6305835955821872</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5989559809388747</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.19348267826174</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8817956094108914</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0206373723157705</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.21210925847165812</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3783376152999936E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5739657981554569E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.7875102861845109E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.7792349726775954E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1325774892566515E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,55 +15161,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2896921209171766E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.71365869980379582</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6602150545512739</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3148748654961442</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5041132304099669</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7315557758847357</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2627505523121112</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8635257491253487</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0206373723157705</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.21866933863057539</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4064669543877486E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5494518381730238E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.4642955106519151E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8532786885245898E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0767425558501721E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.712674763982654E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.35336498728149113</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.8894009220810396</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0893528778805384</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3152917977910936</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3790378674369541</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1082859848059319</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.95916766499098838</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.50536413580683781</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.10824132262213482</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.7510413810611936E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2624689390952954E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.1675048002194387E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17000,8 +17000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17025,7 +17025,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -17036,7 +17036,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -17047,7 +17047,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17058,7 +17058,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -17069,7 +17069,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.6150273224043715E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6080168236262226E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.0592249498779688E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.89182465870187089</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2652575569619953</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9068508008426863</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.3578280614711575</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2002315986656762</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8017800233008958</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3882243298505013</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2170997665744836</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.28885188617638902</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7385417051975127E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9173718935722774E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.1346694706043698E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,99 +26558,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8037932201271314</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.4658906066317163</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.4565615214162868</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.4149306840242812</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1528058404538744</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9791865785819762</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7121948708659183</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5516458039480563</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3509764531685735</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2680696952843538</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3312319452031742</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3242759720786426</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1750084679455486</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2518090350633864</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4476233533108305</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6572109925989178</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6176937441547126</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.941404121871547</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8106567402050491</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8516967626068983</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0122879877608928</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9952329513688289</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9752924630595459</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2135220568395768</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.7073278688524591E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5026424065100117E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.2283593227895509E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.85685114267434648</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1358142679927381</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7615082608005519</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.1979314871153881</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5370980827357479</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0082269723862249</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2963695479331743</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2046803812012747</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.2777421982465279</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7209806778722854E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9173718935722774E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.1346694706043698E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.4304262295081964E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5553296150681172E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.0592249498779688E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.84810776366746543</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0710926235081097</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9068508008426863</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2938694317288499</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5370980827357479</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8017800233008958</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2504421569745108</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1922609958280657</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.2777421982465279</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6858586232218306E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9775238913778914E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.8217975678888173E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3998142076502733E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2513212032550058E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.156463254622671E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.45028401885437597</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0355463117540549</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4388911464171297</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6309450584288481</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7011757445538596</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5336059074910167</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1711484694459189</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.6085498832872418</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.1333162551583334</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.6927085259875636E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4436479473347352E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.0282257474627412E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.3842759562841529E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5026424065100117E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.4397772889290289E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.90056803770875193</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1573881494876144</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0521933408848207</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.1659521722442343</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.334978192293705</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0082269723862249</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.411188025329833</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2170997665744836</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.28885188617638902</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8439078691488773E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0376758891835054E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.2128874462832587E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,99 +27313,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7493506333285458</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.4898312921329948</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5568293386169518</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3424827635035528</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0675462032081762</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9411252982246305</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6265851273226222</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4594688254956965</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.365197257938769</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3595798794801317</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2646703479430155</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3371330203512508</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1390388209676237</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.215348577731443</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4625473054068185</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6572109925989178</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6345447206563244</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9794708693592247</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8106567402050491</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8328018976823381</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1782498836586988</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0556945559557631</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8962807645371642</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2582396741494675</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.7534781420765025E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6607040321843284E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.0592249498779688E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.86559452168122764</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2652575569619953</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9359193088511133</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.1659521722442343</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.3012915438866979</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9197497084925126</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.319333243412506</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3040354641869469</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.26663251031666679</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8263468418236498E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8872958946694704E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.430707689494376E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.8457786885245901E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7660784493005394E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.312926509245342E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.88308127969498973</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0710926235081097</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0521933408848207</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0380349127596187</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.368664840700712</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8607648658967042</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3652606343711695</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3040354641869469</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.27218735428159735</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7385417051975127E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0978278869891194E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.9782335192465936E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.284438524590164E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.356695620371217E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0084706783250365E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.42842557133717324</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0679071339963691</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5115624164381969</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5350071138153862</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6169591235363416</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4303824329483521</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.159666621706253</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.6085498832872418</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.14442594308819451</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.6927085259875636E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4887619456889457E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.9891167596232968E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.5227267759562839E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5816732193471701E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.101508543105864E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.88308127969498973</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1358142679927381</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8487137848258324</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.1979314871153881</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.334978192293705</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0672118149820333</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1815510705365155</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1922609958280657</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.27218735428159735</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7209806778722854E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0978278869891194E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.1346694706043698E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,99 +27987,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8310145135264237</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2983058081227647</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.381360658515788</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.4149306840242812</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2167505683881479</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8459720973312663</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7293168195745774</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4748316552377565</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.478963696100333</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3203612291105125</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3445442646552059</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2471336824429935</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1989882325974985</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1788881203994996</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5371670658867584</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6237319826474246</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6345447206563244</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9985042431030633</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8830830098132512</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9272762223051392</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0537784617353441</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0960022923470527</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0345512369513323</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2135220568395768</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.7996284153005466E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5553296150681172E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.1860757295616551E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.90931141671563309</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2652575569619953</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9649878168595403</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.1339728573730801</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2002315986656762</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9197497084925126</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3422969388918378</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2916160788137379</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.26385508833420152</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7209806778722854E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0376758891835054E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.0564514949254824E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.8457786885245901E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7660784493005394E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.1437921363337599E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.87433790068810868</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1789620309824906</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8196452768174058</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.1019935425019263</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.3012915438866979</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0967042362799373</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2504421569745108</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2543579226941108</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.28885188617638902</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7561027325227402E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.1279038858919264E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.430707689494376E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3998142076502733E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2776648075340586E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0296124749389844E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.45465570835781655</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0355463117540549</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4679596544255566</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6629243733000019</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6506457719433489</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4303824329483521</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0907755352682578</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65201773209347347</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.13609367714079867</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.8683187992398386E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4737239462375422E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.8326808082655205E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_3/ieee18_3_2025.xlsx
+++ b/data/IEEE9/ieee18_3/ieee18_3_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26692701-3143-4416-9034-1BB0B6791316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D9EE66-5D49-44C4-A038-BC7557E0DEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28560" yWindow="3270" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="1065" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8898,7 +8898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -13490,7 +13490,7 @@
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1743927341440371E-5</v>
+        <v>2.0280393770381884E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2218634173931116E-2</v>
+        <v>3.3914351762032752E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70672997456298225</v>
+        <v>0.71365869980379582</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7449199042732777</v>
+        <v>1.7788018441620792</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2014006073835883</v>
+        <v>2.360264568741167</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4535250843410785</v>
+        <v>2.6052895225477433</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5989559809388747</v>
+        <v>2.6519958989172192</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4243755917629763</v>
+        <v>2.3781970090627289</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8269860285542634</v>
+        <v>1.9000654696964341</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97109186880529608</v>
+        <v>1.0206373723157705</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21210925847165812</v>
+        <v>0.21648264524426963</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4064669543877486E-3</v>
+        <v>1.4627256325632585E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5004239182081583E-4</v>
+        <v>2.4268820382608591E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2703666453323571E-5</v>
+        <v>6.3350096004388773E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,31 +13583,31 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5963033885587485</v>
+        <v>3.5229094418534674</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4693835408087361</v>
+        <v>3.2692267980697709</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4052250255042749</v>
+        <v>3.3397399288599621</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2489292133279548</v>
+        <v>3.2817466801292472</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8135680291080329</v>
+        <v>2.699888512780436</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4582012144018996</v>
+        <v>2.4080338426794112</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2264142387265826</v>
+        <v>2.0941520067230233</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13615,27 +13615,27 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9958503499699458</v>
+        <v>1.9764731621061595</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7164455539185526</v>
+        <v>1.7695314988851059</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8268594684877302</v>
+        <v>1.7746634836737949</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6643789390303803</v>
+        <v>1.7684026227197791</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6071103008477077</v>
+        <v>1.6720440503769081</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5515523717864066</v>
+        <v>1.6635200687194462</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13643,31 +13643,31 @@
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1752962990900047</v>
+        <v>2.1528705640478401</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2967953026813128</v>
+        <v>2.3671053629674756</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6202029888839347</v>
+        <v>2.6461455927342707</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4173578797403383</v>
+        <v>2.4666917140207536</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4229412297342954</v>
+        <v>2.6500919700218857</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6285460344715954</v>
+        <v>2.787851854742601</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7789760791106723</v>
+        <v>2.8334658061520579</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13675,7 +13675,7 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.098632544718436</v>
+        <v>2.8900707388239257</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7065573770491797E-5</v>
+        <v>3.7792349726775954E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1116698668129589E-5</v>
+        <v>2.0907622443692663E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,47 +13712,47 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5610069350134388E-2</v>
+        <v>3.2557777691551437E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71365869980379582</v>
+        <v>0.69980124932216869</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6602150545512739</v>
+        <v>1.7110379643844762</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2694851622511218</v>
+        <v>2.360264568741167</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6558776686166317</v>
+        <v>2.5799954495132993</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7845956938630803</v>
+        <v>2.7315557758847357</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2627505523121112</v>
+        <v>2.3781970090627289</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.73563672712655</v>
+        <v>1.9183353299819768</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94136456669901147</v>
+        <v>1.0305464730178653</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21866933863057539</v>
+        <v>0.21648264524426963</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3924022848438712E-3</v>
+        <v>1.4064669543877486E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2057236902258382E-5</v>
+        <v>6.4642955106519151E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5975409836065571E-5</v>
+        <v>3.7065573770491797E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1116698668129589E-5</v>
+        <v>2.0907622443692663E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3236064726792094E-2</v>
+        <v>3.2896921209171766E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13821,47 +13821,47 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7788018441620792</v>
+        <v>1.7279789343288769</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3829594203636781</v>
+        <v>2.2467903106286107</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5547013764788549</v>
+        <v>2.4282310113066345</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7315557758847357</v>
+        <v>2.7050358168955637</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3781970090627289</v>
+        <v>2.4012863004128526</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7721764476976354</v>
+        <v>1.73563672712655</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95127366740110642</v>
+        <v>0.98100096950739102</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22960280556210416</v>
+        <v>0.21866933863057539</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4627256325632585E-3</v>
+        <v>1.4064669543877486E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5249378781905908E-4</v>
+        <v>2.5494518381730238E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2703666453323571E-5</v>
+        <v>6.1410807351193193E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7260928961748631E-5</v>
+        <v>1.8714480874316939E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0662887446283258E-5</v>
+        <v>1.0140196885190942E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.712674763982654E-2</v>
+        <v>1.6448460604585883E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13922,47 +13922,47 @@
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83010752727563697</v>
+        <v>0.84704849722003772</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1801322843705835</v>
+        <v>1.1233951553143053</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2267625421705393</v>
+        <v>1.2647036517222054</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3259979494586096</v>
+        <v>1.3657778879423679</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1429199218311172</v>
+        <v>1.2121877958814882</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90435808413436036</v>
+        <v>0.93176287456267437</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5004095854557904</v>
+        <v>0.48554593440264804</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10714797592898194</v>
+        <v>0.11480140278105208</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1729814673775183E-4</v>
+        <v>6.7510413810611936E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2379549791128626E-4</v>
+        <v>1.1889270591479966E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0705403675596596E-5</v>
+        <v>3.1028618451129191E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7428961748633879E-5</v>
+        <v>3.4885245901639338E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1743927341440371E-5</v>
+        <v>2.048946999481881E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,23 +14184,23 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2218634173931116E-2</v>
+        <v>3.5610069350134388E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70672997456298225</v>
+        <v>0.66515762311810089</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6432740846068732</v>
+        <v>1.7618608742176785</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1787057557610767</v>
+        <v>2.1560109041385656</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6305835955821872</v>
+        <v>2.6558776686166317</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14208,31 +14208,31 @@
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3551077177126052</v>
+        <v>2.2165719696118638</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8452558888398061</v>
+        <v>1.7904463079831781</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0206373723157705</v>
+        <v>0.97109186880529608</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21210925847165812</v>
+        <v>0.20992256508535237</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.420531623931626E-3</v>
+        <v>1.3642729457561161E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5004239182081583E-4</v>
+        <v>2.5739657981554569E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4642955106519151E-5</v>
+        <v>6.1410807351193193E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,23 +14257,23 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5229094418534674</v>
+        <v>3.8531822020272304</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3025862551929315</v>
+        <v>3.369305169439254</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2087697355713356</v>
+        <v>3.3397399288599621</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3801990805331248</v>
+        <v>3.3145641469305396</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7851481500261341</v>
+        <v>2.699888512780436</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14281,43 +14281,43 @@
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1823268280587298</v>
+        <v>2.2043705333926562</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8802261881232414</v>
+        <v>1.900018042735065</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.918341598514802</v>
+        <v>1.9764731621061595</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8580080738293612</v>
+        <v>1.7164455539185526</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8268594684877302</v>
+        <v>1.75726482206915</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.785739903334679</v>
+        <v>1.6817162196452802</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.623343738230008</v>
+        <v>1.5908768634654078</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6635200687194462</v>
+        <v>1.5675477570625551</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0348195522948895</v>
+        <v>1.9542326393327154</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2874249743008299</v>
+        <v>2.2425735042164998</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14325,23 +14325,23 @@
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6461455927342707</v>
+        <v>2.5942603850335986</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3680240454599235</v>
+        <v>2.4666917140207536</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5238971143065578</v>
+        <v>2.4986581431634924</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5488931243360922</v>
+        <v>2.6285460344715954</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6972414885485936</v>
+        <v>2.642751761507208</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14349,7 +14349,7 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.979454369921573</v>
+        <v>2.8304816514254942</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6338797814207646E-5</v>
+        <v>3.4521857923497262E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9862241321508028E-5</v>
+        <v>2.0071317545944954E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,11 +14386,11 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5610069350134388E-2</v>
+        <v>3.425349527965308E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72058742504460938</v>
+        <v>0.67208634835891445</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14398,43 +14398,43 @@
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1787057557610767</v>
+        <v>2.2694851622511218</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6052895225477433</v>
+        <v>2.6558776686166317</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6519958989172192</v>
+        <v>2.7315557758847357</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2165719696118638</v>
+        <v>2.19348267826174</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7539065874120927</v>
+        <v>1.7904463079831781</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95127366740110642</v>
+        <v>0.99091007020948585</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20773587169904661</v>
+        <v>0.21429595185796388</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3783376152999936E-3</v>
+        <v>1.3924022848438712E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3778541182959933E-4</v>
+        <v>2.5494518381730238E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6582243759714732E-5</v>
+        <v>6.528938465758434E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6338797814207646E-5</v>
+        <v>3.7065573770491797E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1953003565877297E-5</v>
+        <v>2.1325774892566515E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,15 +14487,15 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2218634173931116E-2</v>
+        <v>3.3575208244412423E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72751615028542294</v>
+        <v>0.68594379884054157</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6771560244956747</v>
+        <v>1.7449199042732777</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14503,39 +14503,39 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4535250843410785</v>
+        <v>2.4282310113066345</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5193961039713582</v>
+        <v>2.6785158579063912</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2165719696118638</v>
+        <v>2.4243755917629763</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7721764476976354</v>
+        <v>1.8269860285542634</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0404555737199601</v>
+        <v>0.94136456669901147</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22741611217579841</v>
+        <v>0.21866933863057539</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.420531623931626E-3</v>
+        <v>1.4064669543877486E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4268820382608591E-4</v>
+        <v>2.5494518381730238E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2703666453323571E-5</v>
+        <v>6.7228673310779921E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7624316939890707E-5</v>
+        <v>1.8351092896174861E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0871963670720186E-5</v>
+        <v>1.0767425558501721E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,35 +14588,35 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6278888845775719E-2</v>
+        <v>1.7635462916257033E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34990062466108435</v>
+        <v>0.33604317417945723</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84704849722003772</v>
+        <v>0.81316655733123622</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1460900069368165</v>
+        <v>1.1801322843705835</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2267625421705393</v>
+        <v>1.2014684691360951</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2994779904694373</v>
+        <v>1.3922978469315401</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1890985045313645</v>
+        <v>1.1775538588563026</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87695329370604636</v>
+        <v>0.92262794441990303</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14624,19 +14624,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1137080560878992</v>
+        <v>0.11042801600844057</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1026581196581302E-4</v>
+        <v>7.0323347719387431E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2134410191304296E-4</v>
+        <v>1.2379549791128626E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1028618451129191E-5</v>
+        <v>3.3291121879857366E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5248633879781413E-5</v>
+        <v>3.5612021857923495E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0907622443692663E-5</v>
+        <v>2.1325774892566515E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,23 +14858,23 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5610069350134388E-2</v>
+        <v>3.3236064726792094E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69287252408135513</v>
+        <v>0.66515762311810089</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6940969944400754</v>
+        <v>1.6432740846068732</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1787057557610767</v>
+        <v>2.3829594203636781</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6052895225477433</v>
+        <v>2.6305835955821872</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14882,15 +14882,15 @@
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3320184263624819</v>
+        <v>2.4012863004128526</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8635257491253487</v>
+        <v>1.8452558888398061</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0206373723157705</v>
+        <v>0.99091007020948585</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14898,15 +14898,15 @@
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4486609630193811E-3</v>
+        <v>1.3642729457561161E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5249378781905908E-4</v>
+        <v>2.5739657981554569E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.528938465758434E-5</v>
+        <v>6.6582243759714732E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14935,59 +14935,59 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4360240836855755</v>
+        <v>3.3359457123160929</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1105420906048664</v>
+        <v>3.4379675738264313</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2817466801292472</v>
+        <v>3.2161117465266624</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9272475454356304</v>
+        <v>2.7567282709442344</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4582012144018996</v>
+        <v>2.5836196437081185</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1382394173908761</v>
+        <v>2.2705016493944363</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.900018042735065</v>
+        <v>2.0385610250178301</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8408328470596582</v>
+        <v>2.0346047256975175</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8226174438516591</v>
+        <v>1.7518361838962548</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6528728524412795</v>
+        <v>1.79206214527844</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6990535002601801</v>
+        <v>1.6643789390303803</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5908768634654078</v>
+        <v>1.5421765513185075</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5515523717864066</v>
+        <v>1.5195616012341095</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9945260958138027</v>
+        <v>2.0952597370165202</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14995,35 +14995,35 @@
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.22648524239515</v>
+        <v>2.3671053629674756</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5942603850335986</v>
+        <v>2.4645473657819181</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3433571283197159</v>
+        <v>2.4666917140207536</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6248529988788203</v>
+        <v>2.4481802008773612</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7081989446070982</v>
+        <v>2.6285460344715954</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6155068979865153</v>
+        <v>2.7789760791106723</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5310571056062319</v>
+        <v>2.5046919274228339</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.979454369921573</v>
+        <v>3.0390434573200045</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5975409836065571E-5</v>
+        <v>3.7065573770491797E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9862241321508028E-5</v>
+        <v>2.0698546219255736E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,23 +15060,23 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2557777691551437E-2</v>
+        <v>3.4592638797273409E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70672997456298225</v>
+        <v>0.66515762311810089</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6602150545512739</v>
+        <v>1.7449199042732777</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.360264568741167</v>
+        <v>2.3375697171186554</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6305835955821872</v>
+        <v>2.5799954495132993</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15088,27 +15088,27 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8817956094108914</v>
+        <v>1.8269860285542634</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0206373723157705</v>
+        <v>0.99091007020948585</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21210925847165812</v>
+        <v>0.21429595185796388</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3783376152999936E-3</v>
+        <v>1.4486609630193811E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5739657981554569E-4</v>
+        <v>2.5004239182081583E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7875102861845109E-5</v>
+        <v>6.528938465758434E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1325774892566515E-5</v>
+        <v>1.9862241321508028E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,27 +15161,27 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2896921209171766E-2</v>
+        <v>3.5610069350134388E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71365869980379582</v>
+        <v>0.67901507359972801</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6602150545512739</v>
+        <v>1.6771560244956747</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3148748654961442</v>
+        <v>2.1560109041385656</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5041132304099669</v>
+        <v>2.5547013764788549</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7315557758847357</v>
+        <v>2.5459160629605302</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15189,15 +15189,15 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8635257491253487</v>
+        <v>1.7539065874120927</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0206373723157705</v>
+        <v>1.0404555737199601</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21866933863057539</v>
+        <v>0.21648264524426963</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5494518381730238E-4</v>
+        <v>2.5739657981554569E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8532786885245898E-5</v>
+        <v>1.9077868852459015E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0767425558501721E-5</v>
+        <v>1.0453811221846331E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.712674763982654E-2</v>
+        <v>1.7465891157446869E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35336498728149113</v>
+        <v>0.34297189942027079</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8894009220810396</v>
+        <v>0.8555189821922381</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0893528778805384</v>
+        <v>1.1347425811255609</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3152917977910936</v>
+        <v>1.2647036517222054</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3790378674369541</v>
+        <v>1.3525179084477819</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1082859848059319</v>
+        <v>1.09674133913087</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95916766499098838</v>
+        <v>0.95003273484821704</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50536413580683781</v>
+        <v>0.47563683370055321</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10824132262213482</v>
+        <v>0.10605462923582906</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7510413810611936E-4</v>
+        <v>7.0323347719387431E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2624689390952954E-4</v>
+        <v>1.1889270591479966E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1675048002194387E-5</v>
+        <v>3.3291121879857366E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17000,7 +17000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6150273224043715E-5</v>
+        <v>4.8457786885245901E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6080168236262226E-5</v>
+        <v>2.5816732193471701E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,19 +26485,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0592249498779688E-2</v>
+        <v>4.3552101024732379E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89182465870187089</v>
+        <v>0.86559452168122764</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2652575569619953</v>
+        <v>2.0495187420132335</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9068508008426863</v>
+        <v>2.8777822928342593</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26509,27 +26509,27 @@
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8017800233008958</v>
+        <v>2.9492421297904166</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3882243298505013</v>
+        <v>2.3422969388918378</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2170997665744836</v>
+        <v>1.3040354641869469</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28885188617638902</v>
+        <v>0.26663251031666679</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7385417051975127E-3</v>
+        <v>1.8439078691488773E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9173718935722774E-4</v>
+        <v>3.1579798847947334E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,43 +26558,43 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8037932201271314</v>
+        <v>2.5860228729327908</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4658906066317163</v>
+        <v>2.3461871791253222</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4565615214162868</v>
+        <v>2.4816284757164531</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4149306840242812</v>
+        <v>2.4390799908645242</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1528058404538744</v>
+        <v>2.1954356590767237</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9791865785819762</v>
+        <v>1.9411252982246305</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7121948708659183</v>
+        <v>1.6779509734485998</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5516458039480563</v>
+        <v>1.5209201444639362</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3509764531685735</v>
+        <v>1.4078596722493555</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2680696952843538</v>
+        <v>1.2549968118278139</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26602,31 +26602,31 @@
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3242759720786426</v>
+        <v>1.2985618755334261</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1750084679455486</v>
+        <v>1.1510287032935986</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2518090350633864</v>
+        <v>1.2275020635087575</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4476233533108305</v>
+        <v>1.5670149700787341</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6572109925989178</v>
+        <v>1.6069924776716777</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6176937441547126</v>
+        <v>1.651395697157936</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.941404121871547</v>
+        <v>1.8843040006400309</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26634,15 +26634,15 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8516967626068983</v>
+        <v>1.9272762223051392</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0122879877608928</v>
+        <v>2.1575046466714727</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9952329513688289</v>
+        <v>2.0960022923470527</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7073278688524591E-5</v>
+        <v>4.5227267759562839E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5026424065100117E-5</v>
+        <v>2.7397348450214868E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,23 +26687,23 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2283593227895509E-2</v>
+        <v>4.4397772889290289E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85685114267434648</v>
+        <v>0.90056803770875193</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1358142679927381</v>
+        <v>2.2652575569619953</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7615082608005519</v>
+        <v>2.8196452768174058</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1979314871153881</v>
+        <v>3.0700142276307725</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26711,31 +26711,31 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0082269723862249</v>
+        <v>2.8312724445987998</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2963695479331743</v>
+        <v>2.2504421569745108</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2046803812012747</v>
+        <v>1.1922609958280657</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2777421982465279</v>
+        <v>0.29162930815885429</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7209806778722854E-3</v>
+        <v>1.7385417051975127E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9173718935722774E-4</v>
+        <v>3.0376758891835054E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1346694706043698E-5</v>
+        <v>7.5871436408521522E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4304262295081964E-5</v>
+        <v>4.6150273224043715E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5553296150681172E-5</v>
+        <v>2.5026424065100117E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,51 +26788,51 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0592249498779688E-2</v>
+        <v>4.312926509245342E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84810776366746543</v>
+        <v>0.83936438466058427</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0710926235081097</v>
+        <v>2.092666505002986</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9068508008426863</v>
+        <v>2.7905767688089789</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2938694317288499</v>
+        <v>3.0380349127596187</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5370980827357479</v>
+        <v>3.5034114343287408</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8017800233008958</v>
+        <v>2.9197497084925126</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2504421569745108</v>
+        <v>2.227478461495179</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1922609958280657</v>
+        <v>1.3040354641869469</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2777421982465279</v>
+        <v>0.27218735428159735</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6858586232218306E-3</v>
+        <v>1.6682975958966031E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9775238913778914E-4</v>
+        <v>2.8572198957666634E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26869,7 +26869,7 @@
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2513212032550058E-5</v>
+        <v>1.290836609673585E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,11 +26889,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.156463254622671E-2</v>
+        <v>2.1776050512366189E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45028401885437597</v>
+        <v>0.43716895034405434</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26901,43 +26901,43 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4388911464171297</v>
+        <v>1.4243568924129162</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6309450584288481</v>
+        <v>1.614955400993271</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7011757445538596</v>
+        <v>1.7180190687573631</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5336059074910167</v>
+        <v>1.4451286435973041</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1711484694459189</v>
+        <v>1.2055940126649165</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6085498832872418</v>
+        <v>0.65201773209347347</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1333162551583334</v>
+        <v>0.14442594308819451</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6927085259875636E-4</v>
+        <v>8.5170982527352896E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4436479473347352E-4</v>
+        <v>1.5639519429459632E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0282257474627412E-5</v>
+        <v>3.7935718204260761E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,7 +27216,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3842759562841529E-5</v>
+        <v>4.8457786885245901E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,23 +27240,23 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4397772889290289E-2</v>
+        <v>4.2706429160174468E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90056803770875193</v>
+        <v>0.91805479572251414</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1573881494876144</v>
+        <v>2.2221097939722427</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0521933408848207</v>
+        <v>2.7615082608005519</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1659521722442343</v>
+        <v>3.1979314871153881</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27264,7 +27264,7 @@
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0082269723862249</v>
+        <v>2.9492421297904166</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27272,23 +27272,23 @@
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2170997665744836</v>
+        <v>1.2419385373209018</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28885188617638902</v>
+        <v>0.26385508833420152</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8439078691488773E-3</v>
+        <v>1.7561027325227402E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0376758891835054E-4</v>
+        <v>2.9173718935722774E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2128874462832587E-5</v>
+        <v>7.5871436408521522E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,23 +27313,23 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7493506333285458</v>
+        <v>2.8310145135264237</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4898312921329948</v>
+        <v>2.4180092356291585</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5568293386169518</v>
+        <v>2.4064276128159543</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3424827635035528</v>
+        <v>2.2941841498230673</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0675462032081762</v>
+        <v>2.1528058404538744</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27337,75 +27337,75 @@
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6265851273226222</v>
+        <v>1.6950729221572587</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4594688254956965</v>
+        <v>1.5823714634321762</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.365197257938769</v>
+        <v>1.4363012817897465</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3595798794801317</v>
+        <v>1.2811425787408934</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2646703479430155</v>
+        <v>1.3844812230113011</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3371330203512508</v>
+        <v>1.221419585897777</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1390388209676237</v>
+        <v>1.2229679972494485</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.215348577731443</v>
+        <v>1.1788881203994996</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4625473054068185</v>
+        <v>1.5520910179827463</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6572109925989178</v>
+        <v>1.7409085174776511</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6345447206563244</v>
+        <v>1.6008427676531012</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9794708693592247</v>
+        <v>1.9223707481277084</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8106567402050491</v>
+        <v>1.7744436054009483</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8328018976823381</v>
+        <v>1.8705916275314587</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1782498836586988</v>
+        <v>2.1575046466714727</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0556945559557631</v>
+        <v>2.1161561605426975</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8962807645371642</v>
+        <v>1.9950453876901415</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2582396741494675</v>
+        <v>2.2358808654945221</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27422,7 +27422,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6607040321843284E-5</v>
+        <v>2.5026424065100117E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,31 +27442,31 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0592249498779688E-2</v>
+        <v>4.0169413566500729E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86559452168122764</v>
+        <v>0.84810776366746543</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2652575569619953</v>
+        <v>2.1573881494876144</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9359193088511133</v>
+        <v>2.8487137848258324</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1659521722442343</v>
+        <v>3.2618901168576961</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3012915438866979</v>
+        <v>3.5370980827357479</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9197497084925126</v>
+        <v>2.9492421297904166</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27474,23 +27474,23 @@
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3040354641869469</v>
+        <v>1.1922609958280657</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26663251031666679</v>
+        <v>0.28607446419392374</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8263468418236498E-3</v>
+        <v>1.6858586232218306E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8872958946694704E-4</v>
+        <v>2.9775238913778914E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.430707689494376E-5</v>
+        <v>7.9782335192465936E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8457786885245901E-5</v>
+        <v>4.3842759562841529E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7660784493005394E-5</v>
+        <v>2.5553296150681172E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,23 +27543,23 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.312926509245342E-2</v>
+        <v>4.1437921363337599E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88308127969498973</v>
+        <v>0.83062100565370323</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0710926235081097</v>
+        <v>2.2652575569619953</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0521933408848207</v>
+        <v>2.9068508008426863</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0380349127596187</v>
+        <v>3.3258487466000037</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27567,19 +27567,19 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8607648658967042</v>
+        <v>3.0377193936841289</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3652606343711695</v>
+        <v>2.1815510705365155</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3040354641869469</v>
+        <v>1.2170997665744836</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27218735428159735</v>
+        <v>0.28607446419392374</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27587,11 +27587,11 @@
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0978278869891194E-4</v>
+        <v>2.9474478924750844E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9782335192465936E-5</v>
+        <v>7.5089256651732648E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,7 +27620,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.284438524590164E-5</v>
+        <v>2.3767390710382512E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0084706783250365E-2</v>
+        <v>2.0718960681668799E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42842557133717324</v>
+        <v>0.41531050282685161</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0679071339963691</v>
+        <v>1.1002679562386835</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5115624164381969</v>
+        <v>1.5260966704424104</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5350071138153862</v>
+        <v>1.5989657435576941</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6169591235363416</v>
+        <v>1.7517057171643704</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4303824329483521</v>
+        <v>1.5041134861931125</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.159666621706253</v>
+        <v>1.1941121649252506</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6085498832872418</v>
+        <v>0.65201773209347347</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14442594308819451</v>
+        <v>0.14164852110572923</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6927085259875636E-4</v>
+        <v>8.6049033893614271E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4887619456889457E-4</v>
+        <v>1.5789899423973667E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9891167596232968E-5</v>
+        <v>3.8717897961049643E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5227267759562839E-5</v>
+        <v>4.568877049180328E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5816732193471701E-5</v>
+        <v>2.7133912407424339E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,35 +27914,35 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.101508543105864E-2</v>
+        <v>4.4397772889290289E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88308127969498973</v>
+        <v>0.91805479572251414</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1358142679927381</v>
+        <v>2.1573881494876144</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8487137848258324</v>
+        <v>2.9068508008426863</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1979314871153881</v>
+        <v>3.2299108019865419</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.334978192293705</v>
+        <v>3.3012915438866979</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0672118149820333</v>
+        <v>2.8607648658967042</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1815510705365155</v>
+        <v>2.227478461495179</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27950,7 +27950,7 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27218735428159735</v>
+        <v>0.28051962022899318</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27958,11 +27958,11 @@
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0978278869891194E-4</v>
+        <v>3.0677518880863124E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1346694706043698E-5</v>
+        <v>7.8217975678888173E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,31 +27987,31 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8310145135264237</v>
+        <v>2.6132441663320831</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2983058081227647</v>
+        <v>2.4898312921329948</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.381360658515788</v>
+        <v>2.4314945671161206</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4149306840242812</v>
+        <v>2.3424827635035528</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2167505683881479</v>
+        <v>2.046231293896752</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8459720973312663</v>
+        <v>1.9220946580459577</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7293168195745774</v>
+        <v>1.6265851273226222</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28019,59 +28019,59 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.478963696100333</v>
+        <v>1.3794180627089643</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3203612291105125</v>
+        <v>1.2942154621974331</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3445442646552059</v>
+        <v>1.3844812230113011</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2471336824429935</v>
+        <v>1.221419585897777</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1989882325974985</v>
+        <v>1.2349578795754235</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1788881203994996</v>
+        <v>1.1667346346221852</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5371670658867584</v>
+        <v>1.4923952095987945</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6237319826474246</v>
+        <v>1.6069924776716777</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6345447206563244</v>
+        <v>1.651395697157936</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9985042431030633</v>
+        <v>1.941404121871547</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8830830098132512</v>
+        <v>1.7744436054009483</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9272762223051392</v>
+        <v>1.9461710872296991</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0537784617353441</v>
+        <v>2.0330332247481184</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0960022923470527</v>
+        <v>2.0355406877601188</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28079,7 +28079,7 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2135220568395768</v>
+        <v>2.1240868222197959</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7996284153005466E-5</v>
+        <v>4.4304262295081964E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5553296150681172E-5</v>
+        <v>2.5816732193471701E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1860757295616551E-2</v>
+        <v>4.3552101024732379E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90931141671563309</v>
+        <v>0.91805479572251414</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2652575569619953</v>
+        <v>2.1789620309824906</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9649878168595403</v>
+        <v>2.9068508008426863</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1339728573730801</v>
+        <v>3.2618901168576961</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2002315986656762</v>
+        <v>3.4360381375147262</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9197497084925126</v>
+        <v>2.8607648658967042</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3422969388918378</v>
+        <v>2.1815510705365155</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2916160788137379</v>
+        <v>1.2295191519476927</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26385508833420152</v>
+        <v>0.26663251031666679</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7209806778722854E-3</v>
+        <v>1.791224787173195E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0376758891835054E-4</v>
+        <v>2.8572198957666634E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0564514949254824E-5</v>
+        <v>8.1346694706043698E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8457786885245901E-5</v>
+        <v>4.6150273224043715E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7660784493005394E-5</v>
+        <v>2.5289860107890643E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1437921363337599E-2</v>
+        <v>4.1860757295616551E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87433790068810868</v>
+        <v>0.89182465870187089</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1789620309824906</v>
+        <v>2.1142403864978618</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8196452768174058</v>
+        <v>2.9068508008426863</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1019935425019263</v>
+        <v>3.1659521722442343</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3012915438866979</v>
+        <v>3.4023514891077191</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0967042362799373</v>
+        <v>2.8312724445987998</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2504421569745108</v>
+        <v>2.3652606343711695</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2543579226941108</v>
+        <v>1.2170997665744836</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28885188617638902</v>
+        <v>0.26663251031666679</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7561027325227402E-3</v>
+        <v>1.6858586232218306E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1279038858919264E-4</v>
+        <v>2.9173718935722774E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.430707689494376E-5</v>
+        <v>7.665361616531041E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3998142076502733E-5</v>
+        <v>2.261363387978142E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2776648075340586E-5</v>
+        <v>1.356695620371217E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,11 +28318,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0296124749389844E-2</v>
+        <v>2.1776050512366189E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45465570835781655</v>
+        <v>0.42842557133717324</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28330,43 +28330,43 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4679596544255566</v>
+        <v>1.4534254004213432</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6629243733000019</v>
+        <v>1.5190174563798093</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6506457719433489</v>
+        <v>1.7180190687573631</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4303824329483521</v>
+        <v>1.4156362222993999</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0907755352682578</v>
+        <v>1.1022573830079236</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65201773209347347</v>
+        <v>0.6085498832872418</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13609367714079867</v>
+        <v>0.13887109912326395</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8683187992398386E-4</v>
+        <v>8.6927085259875636E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4737239462375422E-4</v>
+        <v>1.5639519429459632E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8326808082655205E-5</v>
+        <v>3.9500077717838531E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_3/ieee18_3_2025.xlsx
+++ b/data/IEEE9/ieee18_3/ieee18_3_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D9EE66-5D49-44C4-A038-BC7557E0DEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69D28A2-D2AB-4AA2-82AF-7AA8F69A38AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="1065" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="3300" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4885245901639338E-5</v>
+        <v>3.7428961748633879E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0280393770381884E-5</v>
+        <v>2.1325774892566515E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3914351762032752E-2</v>
+        <v>3.2218634173931116E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71365869980379582</v>
+        <v>0.70672997456298225</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7788018441620792</v>
+        <v>1.7279789343288769</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.360264568741167</v>
+        <v>2.1560109041385656</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6052895225477433</v>
+        <v>2.5799954495132993</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6519958989172192</v>
+        <v>2.7580757348739082</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3781970090627289</v>
+        <v>2.19348267826174</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9000654696964341</v>
+        <v>1.8635257491253487</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0206373723157705</v>
+        <v>0.94136456669901147</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21648264524426963</v>
+        <v>0.22522941878949265</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4627256325632585E-3</v>
+        <v>1.4064669543877486E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4268820382608591E-4</v>
+        <v>2.4513959982432922E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3350096004388773E-5</v>
+        <v>6.7228673310779921E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13587,23 +13587,23 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2692267980697709</v>
+        <v>3.4360240836855755</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3397399288599621</v>
+        <v>3.1432846389270233</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2817466801292472</v>
+        <v>3.1832942797253692</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.699888512780436</v>
+        <v>2.9840873035994293</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4080338426794112</v>
+        <v>2.5334522719856309</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13611,55 +13611,55 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.959393606570536</v>
+        <v>2.0385610250178301</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9764731621061595</v>
+        <v>2.0152275378337317</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7695314988851059</v>
+        <v>1.7872268138739569</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7746634836737949</v>
+        <v>1.6876701756505694</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7684026227197791</v>
+        <v>1.6990535002601801</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6720440503769081</v>
+        <v>1.623343738230008</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6635200687194462</v>
+        <v>1.6795154539955948</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9945260958138027</v>
+        <v>1.9743793675732593</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1528705640478401</v>
+        <v>2.309850709342995</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3671053629674756</v>
+        <v>2.2733586159192587</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6461455927342707</v>
+        <v>2.7239734042852786</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4666917140207536</v>
+        <v>2.3680240454599235</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6500919700218857</v>
+        <v>2.5743750565926895</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13667,15 +13667,15 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8334658061520579</v>
+        <v>2.6699966250279008</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7419785310734186</v>
+        <v>2.6628829965232237</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8900707388239257</v>
+        <v>3.098632544718436</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7792349726775954E-5</v>
+        <v>3.5248633879781413E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0907622443692663E-5</v>
+        <v>2.1743927341440371E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13716,11 +13716,11 @@
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69980124932216869</v>
+        <v>0.66515762311810089</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7110379643844762</v>
+        <v>1.6602150545512739</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13728,19 +13728,19 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5799954495132993</v>
+        <v>2.4029369382721901</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7315557758847357</v>
+        <v>2.7580757348739082</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3781970090627289</v>
+        <v>2.4243755917629763</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9183353299819768</v>
+        <v>1.73563672712655</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13748,19 +13748,19 @@
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21648264524426963</v>
+        <v>0.22522941878949265</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4064669543877486E-3</v>
+        <v>1.420531623931626E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3778541182959933E-4</v>
+        <v>2.3288261983311274E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4642955106519151E-5</v>
+        <v>6.3996525555453962E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7065573770491797E-5</v>
+        <v>3.4521857923497262E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0907622443692663E-5</v>
+        <v>2.0698546219255736E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13817,15 +13817,15 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65822889787728733</v>
+        <v>0.70672997456298225</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7279789343288769</v>
+        <v>1.6432740846068732</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2467903106286107</v>
+        <v>2.3375697171186554</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13833,19 +13833,19 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7050358168955637</v>
+        <v>2.6519958989172192</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4012863004128526</v>
+        <v>2.2165719696118638</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.73563672712655</v>
+        <v>1.7721764476976354</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98100096950739102</v>
+        <v>1.0107282716136756</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13853,15 +13853,15 @@
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4064669543877486E-3</v>
+        <v>1.3924022848438712E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5494518381730238E-4</v>
+        <v>2.4513959982432922E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1410807351193193E-5</v>
+        <v>6.7875102861845109E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8714480874316939E-5</v>
+        <v>1.8532786885245898E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0140196885190942E-5</v>
+        <v>1.0976501782938649E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,47 +13914,47 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6448460604585883E-2</v>
+        <v>1.6787604122206212E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33604317417945723</v>
+        <v>0.34990062466108435</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84704849722003772</v>
+        <v>0.82163704230343659</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1233951553143053</v>
+        <v>1.1007003036917942</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2647036517222054</v>
+        <v>1.2773506882394274</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3657778879423679</v>
+        <v>1.3525179084477819</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2121877958814882</v>
+        <v>1.2006431502064263</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93176287456267437</v>
+        <v>0.95003273484821704</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48554593440264804</v>
+        <v>0.52022778685998006</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11480140278105208</v>
+        <v>0.10933466931528769</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7510413810611936E-4</v>
+        <v>7.1026581196581302E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13962,7 +13962,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1028618451129191E-5</v>
+        <v>3.3937551430922555E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4885245901639338E-5</v>
+        <v>3.7428961748633879E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.048946999481881E-5</v>
+        <v>2.1953003565877297E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,7 +14184,7 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5610069350134388E-2</v>
+        <v>3.3575208244412423E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14192,19 +14192,19 @@
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7618608742176785</v>
+        <v>1.7788018441620792</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1560109041385656</v>
+        <v>2.2014006073835883</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6558776686166317</v>
+        <v>2.4029369382721901</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5459160629605302</v>
+        <v>2.7050358168955637</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14212,19 +14212,19 @@
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7904463079831781</v>
+        <v>1.8817956094108914</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97109186880529608</v>
+        <v>0.99091007020948585</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20992256508535237</v>
+        <v>0.2230427254031869</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3642729457561161E-3</v>
+        <v>1.3924022848438712E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14232,7 +14232,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1410807351193193E-5</v>
+        <v>6.7228673310779921E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14261,79 +14261,79 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.369305169439254</v>
+        <v>3.4360240836855755</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3397399288599621</v>
+        <v>3.1432846389270233</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3145641469305396</v>
+        <v>3.1504768129240768</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.699888512780436</v>
+        <v>2.7283083918623348</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4080338426794112</v>
+        <v>2.5585359578468747</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2043705333926562</v>
+        <v>2.2925453547283627</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.900018042735065</v>
+        <v>2.0385610250178301</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9764731621061595</v>
+        <v>2.0346047256975175</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7164455539185526</v>
+        <v>1.7341408689074038</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.75726482206915</v>
+        <v>1.6528728524412795</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6817162196452802</v>
+        <v>1.6470416584154806</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5908768634654078</v>
+        <v>1.5746434260831075</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5675477570625551</v>
+        <v>1.5995385276148522</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9542326393327154</v>
+        <v>1.9139391828516286</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2425735042164998</v>
+        <v>2.309850709342995</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2967953026813128</v>
+        <v>2.3436686762054211</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5942603850335986</v>
+        <v>2.5164325734825903</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4666917140207536</v>
+        <v>2.5160255483011689</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4986581431634924</v>
+        <v>2.5996140277357549</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14341,15 +14341,15 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.642751761507208</v>
+        <v>2.6155068979865153</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5574222837896308</v>
+        <v>2.6892481747066217</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8304816514254942</v>
+        <v>3.098632544718436</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4521857923497262E-5</v>
+        <v>3.5612021857923495E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0071317545944954E-5</v>
+        <v>2.0698546219255736E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,11 +14386,11 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.425349527965308E-2</v>
+        <v>3.5270925832514066E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67208634835891445</v>
+        <v>0.72058742504460938</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14398,43 +14398,43 @@
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2694851622511218</v>
+        <v>2.360264568741167</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6558776686166317</v>
+        <v>2.5294073034444109</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7315557758847357</v>
+        <v>2.7050358168955637</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.19348267826174</v>
+        <v>2.4012863004128526</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7904463079831781</v>
+        <v>1.8817956094108914</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99091007020948585</v>
+        <v>0.94136456669901147</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21429595185796388</v>
+        <v>0.21648264524426963</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3924022848438712E-3</v>
+        <v>1.3361436066683611E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5494518381730238E-4</v>
+        <v>2.3778541182959933E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.528938465758434E-5</v>
+        <v>6.7228673310779921E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7065573770491797E-5</v>
+        <v>3.815573770491803E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1325774892566515E-5</v>
+        <v>2.1743927341440371E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,31 +14487,31 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3575208244412423E-2</v>
+        <v>3.5270925832514066E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68594379884054157</v>
+        <v>0.66515762311810089</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7449199042732777</v>
+        <v>1.7618608742176785</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3829594203636781</v>
+        <v>2.2467903106286107</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4282310113066345</v>
+        <v>2.4029369382721901</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6785158579063912</v>
+        <v>2.5193961039713582</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4243755917629763</v>
+        <v>2.2165719696118638</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14519,23 +14519,23 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94136456669901147</v>
+        <v>0.95127366740110642</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21866933863057539</v>
+        <v>0.22960280556210416</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4064669543877486E-3</v>
+        <v>1.4345962934755037E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5494518381730238E-4</v>
+        <v>2.3288261983311274E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7228673310779921E-5</v>
+        <v>6.2703666453323571E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8351092896174861E-5</v>
+        <v>1.7806010928961748E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0767425558501721E-5</v>
+        <v>1.0035658772972477E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,19 +14588,19 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7635462916257033E-2</v>
+        <v>1.7296319398636704E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33604317417945723</v>
+        <v>0.35336498728149113</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81316655733123622</v>
+        <v>0.8555189821922381</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1801322843705835</v>
+        <v>1.0780054520692828</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14616,27 +14616,27 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92262794441990303</v>
+        <v>0.90435808413436036</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5004095854557904</v>
+        <v>0.49545503510474292</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11042801600844057</v>
+        <v>0.10824132262213482</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0323347719387431E-4</v>
+        <v>6.6807180333418054E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2379549791128626E-4</v>
+        <v>1.2747259190865119E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3291121879857366E-5</v>
+        <v>3.1998262777726981E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5612021857923495E-5</v>
+        <v>3.6702185792349721E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1325774892566515E-5</v>
+        <v>2.0280393770381884E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,15 +14858,15 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3236064726792094E-2</v>
+        <v>3.2557777691551437E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66515762311810089</v>
+        <v>0.70672997456298225</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6432740846068732</v>
+        <v>1.7110379643844762</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14874,31 +14874,31 @@
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6305835955821872</v>
+        <v>2.4029369382721901</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6519958989172192</v>
+        <v>2.5724360219497027</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4012863004128526</v>
+        <v>2.2396612609619875</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8452558888398061</v>
+        <v>1.8635257491253487</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99091007020948585</v>
+        <v>1.0305464730178653</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20992256508535237</v>
+        <v>0.2230427254031869</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3642729457561161E-3</v>
+        <v>1.3502082762122387E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14906,7 +14906,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6582243759714732E-5</v>
+        <v>6.7875102861845109E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,11 +14931,11 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6696973352640292</v>
+        <v>3.7063943086166695</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3359457123160929</v>
+        <v>3.369305169439254</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14943,87 +14943,87 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2161117465266624</v>
+        <v>3.1176593461227844</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7567282709442344</v>
+        <v>2.9556674245175301</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5836196437081185</v>
+        <v>2.6337870154306069</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2705016493944363</v>
+        <v>2.2043705333926562</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0385610250178301</v>
+        <v>1.9989773157941828</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0346047256975175</v>
+        <v>1.8602100349234441</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7518361838962548</v>
+        <v>1.7695314988851059</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.79206214527844</v>
+        <v>1.6702715140459246</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6643789390303803</v>
+        <v>1.7510653421048796</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5421765513185075</v>
+        <v>1.623343738230008</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5195616012341095</v>
+        <v>1.5995385276148522</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0952597370165202</v>
+        <v>1.9743793675732593</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2425735042164998</v>
+        <v>2.1752962990900047</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3671053629674756</v>
+        <v>2.437415423253638</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4645473657819181</v>
+        <v>2.6720881965846064</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4666917140207536</v>
+        <v>2.3433571283197159</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4481802008773612</v>
+        <v>2.5743750565926895</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6285460344715954</v>
+        <v>2.655097004516763</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7789760791106723</v>
+        <v>2.8334658061520579</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5046919274228339</v>
+        <v>2.6892481747066217</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0390434573200045</v>
+        <v>2.86027619512471</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7065573770491797E-5</v>
+        <v>3.6702185792349721E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0698546219255736E-5</v>
+        <v>2.1953003565877297E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4592638797273409E-2</v>
+        <v>3.2218634173931116E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66515762311810089</v>
+        <v>0.72751615028542294</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7449199042732777</v>
+        <v>1.6432740846068732</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3375697171186554</v>
+        <v>2.2240954590060995</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5799954495132993</v>
+        <v>2.6305835955821872</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5989559809388747</v>
+        <v>2.6519958989172192</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.19348267826174</v>
+        <v>2.2627505523121112</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8269860285542634</v>
+        <v>1.8452558888398061</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99091007020948585</v>
+        <v>1.0206373723157705</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21429595185796388</v>
+        <v>0.22522941878949265</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4486609630193811E-3</v>
+        <v>1.3783376152999936E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5004239182081583E-4</v>
+        <v>2.3288261983311274E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.528938465758434E-5</v>
+        <v>6.4642955106519151E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7792349726775954E-5</v>
+        <v>3.4885245901639338E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9862241321508028E-5</v>
+        <v>2.1953003565877297E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,19 +15161,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5610069350134388E-2</v>
+        <v>3.3575208244412423E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67901507359972801</v>
+        <v>0.71365869980379582</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6771560244956747</v>
+        <v>1.7449199042732777</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1560109041385656</v>
+        <v>2.360264568741167</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15181,35 +15181,35 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5459160629605302</v>
+        <v>2.6519958989172192</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2627505523121112</v>
+        <v>2.3551077177126052</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7539065874120927</v>
+        <v>1.8635257491253487</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0404555737199601</v>
+        <v>1.0107282716136756</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21648264524426963</v>
+        <v>0.22741611217579841</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4064669543877486E-3</v>
+        <v>1.3502082762122387E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5739657981554569E-4</v>
+        <v>2.5249378781905908E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4642955106519151E-5</v>
+        <v>6.2703666453323571E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9077868852459015E-5</v>
+        <v>1.8169398907103823E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0453811221846331E-5</v>
+        <v>1.0349273109627868E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,15 +15262,15 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7465891157446869E-2</v>
+        <v>1.7635462916257033E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34297189942027079</v>
+        <v>0.35682934990189791</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8555189821922381</v>
+        <v>0.81316655733123622</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15278,11 +15278,11 @@
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2647036517222054</v>
+        <v>1.3026447612738716</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3525179084477819</v>
+        <v>1.3790378674369541</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15290,27 +15290,27 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95003273484821704</v>
+        <v>0.93176287456267437</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47563683370055321</v>
+        <v>0.50536413580683781</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10605462923582906</v>
+        <v>0.11152136270159345</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0323347719387431E-4</v>
+        <v>6.8916880764999678E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1889270591479966E-4</v>
+        <v>1.2624689390952954E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3291121879857366E-5</v>
+        <v>3.1998262777726981E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8457786885245901E-5</v>
+        <v>4.4304262295081964E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5816732193471701E-5</v>
+        <v>2.5289860107890643E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,35 +26485,35 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3552101024732379E-2</v>
+        <v>4.0592249498779688E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86559452168122764</v>
+        <v>0.88308127969498973</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0495187420132335</v>
+        <v>2.1789620309824906</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8777822928342593</v>
+        <v>3.0521933408848207</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3578280614711575</v>
+        <v>3.1659521722442343</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2002315986656762</v>
+        <v>3.4697247859217333</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9492421297904166</v>
+        <v>2.9787345510883205</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3422969388918378</v>
+        <v>2.319333243412506</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26521,19 +26521,19 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26663251031666679</v>
+        <v>0.26385508833420152</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8439078691488773E-3</v>
+        <v>1.7209806778722854E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1579798847947334E-4</v>
+        <v>2.9173718935722774E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1346694706043698E-5</v>
+        <v>7.8217975678888173E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,15 +26558,15 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5860228729327908</v>
+        <v>2.7493506333285458</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3461871791253222</v>
+        <v>2.3222464936240437</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4816284757164531</v>
+        <v>2.4565615214162868</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26578,35 +26578,35 @@
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9411252982246305</v>
+        <v>1.9982172187606491</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6779509734485998</v>
+        <v>1.7293168195745774</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5209201444639362</v>
+        <v>1.5362829742059962</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4078596722493555</v>
+        <v>1.4647428913301377</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2549968118278139</v>
+        <v>1.346506996023592</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3312319452031742</v>
+        <v>1.2779826673950472</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2985618755334261</v>
+        <v>1.3242759720786426</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1510287032935986</v>
+        <v>1.2109781149234735</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26614,31 +26614,31 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5670149700787341</v>
+        <v>1.4923952095987945</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6069924776716777</v>
+        <v>1.7241690125019042</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.651395697157936</v>
+        <v>1.685097650161159</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8843040006400309</v>
+        <v>1.941404121871547</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8106567402050491</v>
+        <v>1.8468698750091503</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9272762223051392</v>
+        <v>1.8328018976823381</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1575046466714727</v>
+        <v>2.0122879877608928</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26646,11 +26646,11 @@
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9752924630595459</v>
+        <v>1.9160336891677594</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2135220568395768</v>
+        <v>2.3476749087692483</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5227267759562839E-5</v>
+        <v>4.4765765027322405E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7397348450214868E-5</v>
+        <v>2.5816732193471701E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,23 +26687,23 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4397772889290289E-2</v>
+        <v>4.0592249498779688E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90056803770875193</v>
+        <v>0.90931141671563309</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2652575569619953</v>
+        <v>2.1358142679927381</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8196452768174058</v>
+        <v>2.9649878168595403</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0700142276307725</v>
+        <v>3.1979314871153881</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26711,31 +26711,31 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8312724445987998</v>
+        <v>2.9787345510883205</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2504421569745108</v>
+        <v>2.411188025329833</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1922609958280657</v>
+        <v>1.2916160788137379</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29162930815885429</v>
+        <v>0.26385508833420152</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7385417051975127E-3</v>
+        <v>1.6682975958966031E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0376758891835054E-4</v>
+        <v>3.0075998902806984E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5871436408521522E-5</v>
+        <v>7.9000155435677061E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6150273224043715E-5</v>
+        <v>4.5227267759562839E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5026424065100117E-5</v>
+        <v>2.5553296150681172E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.312926509245342E-2</v>
+        <v>4.4397772889290289E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83936438466058427</v>
+        <v>0.89182465870187089</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.092666505002986</v>
+        <v>2.1573881494876144</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7905767688089789</v>
+        <v>2.8777822928342593</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0380349127596187</v>
+        <v>3.3258487466000037</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5034114343287408</v>
+        <v>3.4023514891077191</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9197497084925126</v>
+        <v>2.8607648658967042</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.227478461495179</v>
+        <v>2.1815510705365155</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3040354641869469</v>
+        <v>1.2046803812012747</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27218735428159735</v>
+        <v>0.26385508833420152</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6682975958966031E-3</v>
+        <v>1.7561027325227402E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8572198957666634E-4</v>
+        <v>2.8872958946694704E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8217975678888173E-5</v>
+        <v>7.9000155435677061E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,7 +26865,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3998142076502733E-5</v>
+        <v>2.3767390710382512E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1776050512366189E-2</v>
+        <v>2.0930378647808275E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43716895034405434</v>
+        <v>0.41531050282685161</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0355463117540549</v>
+        <v>1.0679071339963691</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4243568924129162</v>
+        <v>1.5115624164381969</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.614955400993271</v>
+        <v>1.5350071138153862</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7180190687573631</v>
+        <v>1.7011757445538596</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4451286435973041</v>
+        <v>1.5188596968420645</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2055940126649165</v>
+        <v>1.1826303171855848</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65201773209347347</v>
+        <v>0.64580803940686893</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14442594308819451</v>
+        <v>0.13748238813203131</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5170982527352896E-4</v>
+        <v>8.4292931161091531E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5639519429459632E-4</v>
+        <v>1.4586859467861387E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7935718204260761E-5</v>
+        <v>3.9891167596232968E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8457786885245901E-5</v>
+        <v>4.7073278688524591E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5026424065100117E-5</v>
+        <v>2.7133912407424339E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2706429160174468E-2</v>
+        <v>4.4397772889290289E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91805479572251414</v>
+        <v>0.83062100565370323</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2221097939722427</v>
+        <v>2.2005359124773669</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7615082608005519</v>
+        <v>2.8487137848258324</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1979314871153881</v>
+        <v>3.2618901168576961</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.334978192293705</v>
+        <v>3.4360381375147262</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9492421297904166</v>
+        <v>3.0377193936841289</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.411188025329833</v>
+        <v>2.2734058524538425</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2419385373209018</v>
+        <v>1.2543579226941108</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26385508833420152</v>
+        <v>0.2777421982465279</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7561027325227402E-3</v>
+        <v>1.8439078691488773E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9173718935722774E-4</v>
+        <v>2.9775238913778914E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5871436408521522E-5</v>
+        <v>7.8217975678888173E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,55 +27313,55 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8310145135264237</v>
+        <v>2.6676867531306683</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4180092356291585</v>
+        <v>2.2743651226214858</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4064276128159543</v>
+        <v>2.6069632472172843</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2941841498230673</v>
+        <v>2.4873786045450097</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1528058404538744</v>
+        <v>2.1954356590767237</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9411252982246305</v>
+        <v>1.9601559384033034</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6950729221572587</v>
+        <v>1.6437070760312813</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5823714634321762</v>
+        <v>1.4594688254956965</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4363012817897465</v>
+        <v>1.4505220865599422</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2811425787408934</v>
+        <v>1.2419239283712742</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3844812230113011</v>
+        <v>1.3578565841072376</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.221419585897777</v>
+        <v>1.3499900686238591</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2229679972494485</v>
+        <v>1.1869983502715238</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27369,43 +27369,43 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5520910179827463</v>
+        <v>1.5073191616947823</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7409085174776511</v>
+        <v>1.6906900025504108</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6008427676531012</v>
+        <v>1.7187996031643822</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9223707481277084</v>
+        <v>1.8652706268961921</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7744436054009483</v>
+        <v>1.7563370379988976</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8705916275314587</v>
+        <v>1.9083813573805788</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1575046466714727</v>
+        <v>2.1782498836586988</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1161561605426975</v>
+        <v>2.0960022923470527</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9950453876901415</v>
+        <v>2.0740570862125232</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2358808654945221</v>
+        <v>2.1464456308747413</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7534781420765025E-5</v>
+        <v>4.7073278688524591E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5026424065100117E-5</v>
+        <v>2.7133912407424339E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27446,19 +27446,19 @@
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84810776366746543</v>
+        <v>0.91805479572251414</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1573881494876144</v>
+        <v>2.092666505002986</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8487137848258324</v>
+        <v>3.0521933408848207</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2618901168576961</v>
+        <v>3.1659521722442343</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27466,31 +27466,31 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9492421297904166</v>
+        <v>2.8902572871946082</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.319333243412506</v>
+        <v>2.411188025329833</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1922609958280657</v>
+        <v>1.2170997665744836</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28607446419392374</v>
+        <v>0.26940993229913207</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6858586232218306E-3</v>
+        <v>1.7034196505470579E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9775238913778914E-4</v>
+        <v>3.0978278869891194E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9782335192465936E-5</v>
+        <v>8.1346694706043698E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3842759562841529E-5</v>
+        <v>4.6150273224043715E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5553296150681172E-5</v>
+        <v>2.6343604279052755E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1437921363337599E-2</v>
+        <v>4.1860757295616551E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83062100565370323</v>
+        <v>0.87433790068810868</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2652575569619953</v>
+        <v>2.0495187420132335</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9068508008426863</v>
+        <v>2.9359193088511133</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3258487466000037</v>
+        <v>3.0380349127596187</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.368664840700712</v>
+        <v>3.4697247859217333</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0377193936841289</v>
+        <v>2.8902572871946082</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1815510705365155</v>
+        <v>2.2504421569745108</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2170997665744836</v>
+        <v>1.2916160788137379</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28607446419392374</v>
+        <v>0.2777421982465279</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7385417051975127E-3</v>
+        <v>1.6682975958966031E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9474478924750844E-4</v>
+        <v>2.9775238913778914E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5089256651732648E-5</v>
+        <v>8.0564514949254824E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3767390710382512E-5</v>
+        <v>2.2152131147540982E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.356695620371217E-5</v>
+        <v>1.3698674225107434E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0718960681668799E-2</v>
+        <v>2.1776050512366189E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41531050282685161</v>
+        <v>0.42405388183373272</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1002679562386835</v>
+        <v>1.0786940747438072</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5260966704424104</v>
+        <v>1.4243568924129162</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5989657435576941</v>
+        <v>1.5190174563798093</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7517057171643704</v>
+        <v>1.6338024477398454</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5041134861931125</v>
+        <v>1.5188596968420645</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1941121649252506</v>
+        <v>1.159666621706253</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65201773209347347</v>
+        <v>0.60234019060063737</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14164852110572923</v>
+        <v>0.13470496614956604</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6049033893614271E-4</v>
+        <v>8.4292931161091531E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5789899423973667E-4</v>
+        <v>1.4436479473347352E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8717897961049643E-5</v>
+        <v>3.9108987839444087E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.568877049180328E-5</v>
+        <v>4.5227267759562839E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7133912407424339E-5</v>
+        <v>2.6343604279052755E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,31 +27914,31 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4397772889290289E-2</v>
+        <v>4.101508543105864E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91805479572251414</v>
+        <v>0.90056803770875193</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1573881494876144</v>
+        <v>2.1142403864978618</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9068508008426863</v>
+        <v>2.7905767688089789</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2299108019865419</v>
+        <v>3.2618901168576961</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3012915438866979</v>
+        <v>3.5034114343287408</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8607648658967042</v>
+        <v>3.0967042362799373</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27946,23 +27946,23 @@
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1922609958280657</v>
+        <v>1.2295191519476927</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28051962022899318</v>
+        <v>0.26663251031666679</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7209806778722854E-3</v>
+        <v>1.6858586232218306E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0677518880863124E-4</v>
+        <v>3.0978278869891194E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8217975678888173E-5</v>
+        <v>8.2128874462832587E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,7 +27987,7 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6132441663320831</v>
+        <v>2.7493506333285458</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27995,27 +27995,27 @@
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4314945671161206</v>
+        <v>2.5818962929171181</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3424827635035528</v>
+        <v>2.4149306840242812</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.046231293896752</v>
+        <v>2.0888611125196008</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9220946580459577</v>
+        <v>1.9982172187606491</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6265851273226222</v>
+        <v>1.7293168195745774</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4748316552377565</v>
+        <v>1.5055573147218761</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28027,7 +28027,7 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3844812230113011</v>
+        <v>1.3578565841072376</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28035,11 +28035,11 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2349578795754235</v>
+        <v>1.2109781149234735</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1667346346221852</v>
+        <v>1.2275020635087575</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28047,39 +28047,39 @@
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6069924776716777</v>
+        <v>1.6739504975746642</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.651395697157936</v>
+        <v>1.735650579665994</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.941404121871547</v>
+        <v>1.8272038794085148</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7744436054009483</v>
+        <v>1.8830830098132512</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9461710872296991</v>
+        <v>1.8894864924560189</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0330332247481184</v>
+        <v>2.1160141726970214</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0355406877601188</v>
+        <v>2.015386819564474</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0345512369513323</v>
+        <v>1.9752924630595459</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1240868222197959</v>
+        <v>2.2358808654945221</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4304262295081964E-5</v>
+        <v>4.7996284153005466E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5816732193471701E-5</v>
+        <v>2.5289860107890643E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,11 +28116,11 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3552101024732379E-2</v>
+        <v>4.0169413566500729E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91805479572251414</v>
+        <v>0.87433790068810868</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28128,27 +28128,27 @@
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9068508008426863</v>
+        <v>2.8777822928342593</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2618901168576961</v>
+        <v>3.0380349127596187</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4360381375147262</v>
+        <v>3.3012915438866979</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8607648658967042</v>
+        <v>3.0377193936841289</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1815510705365155</v>
+        <v>2.2963695479331743</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2295191519476927</v>
+        <v>1.2046803812012747</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28156,15 +28156,15 @@
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.791224787173195E-3</v>
+        <v>1.6682975958966031E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8572198957666634E-4</v>
+        <v>2.9474478924750844E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1346694706043698E-5</v>
+        <v>7.5871436408521522E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6150273224043715E-5</v>
+        <v>4.5227267759562839E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5289860107890643E-5</v>
+        <v>2.687047636463381E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1860757295616551E-2</v>
+        <v>4.101508543105864E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89182465870187089</v>
+        <v>0.90056803770875193</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1142403864978618</v>
+        <v>2.2652575569619953</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9068508008426863</v>
+        <v>2.9649878168595403</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1659521722442343</v>
+        <v>3.1339728573730801</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4023514891077191</v>
+        <v>3.5370980827357479</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8312724445987998</v>
+        <v>2.9787345510883205</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3652606343711695</v>
+        <v>2.2963695479331743</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2170997665744836</v>
+        <v>1.2543579226941108</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26663251031666679</v>
+        <v>0.26940993229913207</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6858586232218306E-3</v>
+        <v>1.7561027325227402E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9173718935722774E-4</v>
+        <v>3.0677518880863124E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.665361616531041E-5</v>
+        <v>7.430707689494376E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.261363387978142E-5</v>
+        <v>2.3305887978142075E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.356695620371217E-5</v>
+        <v>1.3171802139526378E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,39 +28318,39 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1776050512366189E-2</v>
+        <v>2.0296124749389844E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42842557133717324</v>
+        <v>0.41968219233029214</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0355463117540549</v>
+        <v>1.0247593710066167</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4534254004213432</v>
+        <v>1.3807541304002759</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5190174563798093</v>
+        <v>1.5509967712509631</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7180190687573631</v>
+        <v>1.7011757445538596</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4156362222993999</v>
+        <v>1.5041134861931125</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1022573830079236</v>
+        <v>1.1137392307475895</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6085498832872418</v>
+        <v>0.62717896134705542</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28366,7 +28366,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9500077717838531E-5</v>
+        <v>3.9108987839444087E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_3/ieee18_3_2025.xlsx
+++ b/data/IEEE9/ieee18_3/ieee18_3_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AD9C19-229A-4361-89FC-A42F5A7A14B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B80B302-2865-4109-B540-3388BDE0B829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15915" yWindow="7860" windowWidth="21600" windowHeight="11880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-10980" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7724,18 +7724,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
       <sheetData sheetId="27">
         <row r="2">
           <cell r="B2">
@@ -8898,16 +8898,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>1.0510100500999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>1.4025517307000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8992,9 +8992,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>0.46574635432544392</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>-1.21105469586402</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>-0.92413226448843389</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>-0.82414593425700411</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>-0.63537402146332134</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>0.33045586721880954</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>-0.75781562250370704</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>-0.90949163526651555</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -9905,7 +9905,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -9931,7 +9931,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -9957,7 +9957,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -9983,7 +9983,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -10009,7 +10009,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -10035,7 +10035,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -10074,9 +10074,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>0.46118021359676309</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>-1.1990640553109109</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>-0.94299210662085098</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>-0.84062885294214418</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>-0.64172776167795464</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>0.33045586721880954</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>-0.76531874747899142</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>-0.91849650294242169</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -10987,7 +10987,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -11013,7 +11013,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -11039,7 +11039,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -11065,7 +11065,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -11091,7 +11091,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -11117,7 +11117,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -11156,9 +11156,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>0.27712178115862884</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>0.2309348176321907</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>0.18474785410575256</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>0.13856089057931442</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>0.13856089057931442</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>0.13856089057931442</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>0.13856089057931442</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>0.13856089057931442</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -12069,7 +12069,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -12095,7 +12095,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -12121,7 +12121,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -12147,7 +12147,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -12173,7 +12173,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -12199,7 +12199,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -12238,9 +12238,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>0.80241667575423858</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>0.66868056312853208</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>0.53494445050282569</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>0.40120833787711929</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>0.40120833787711929</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>0.40120833787711929</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>0.40120833787711929</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>0.40120833787711929</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -13151,7 +13151,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -13177,7 +13177,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -13203,7 +13203,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -13229,7 +13229,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -13255,7 +13255,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -13281,7 +13281,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -13320,9 +13320,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5975409836065571E-5</v>
+        <v>3.4521857923497262E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1743927341440371E-5</v>
+        <v>2.0698546219255736E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2896921209171766E-2</v>
+        <v>3.425349527965308E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67208634835891445</v>
+        <v>0.67901507359972801</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7449199042732777</v>
+        <v>1.7788018441620792</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2240954590060995</v>
+        <v>2.2694851622511218</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6305835955821872</v>
+        <v>2.4029369382721901</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7315557758847357</v>
+        <v>2.5724360219497027</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3781970090627289</v>
+        <v>2.4012863004128526</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8452558888398061</v>
+        <v>1.9000654696964341</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98100096950739102</v>
+        <v>0.99091007020948585</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22522941878949265</v>
+        <v>0.22960280556210416</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3924022848438712E-3</v>
+        <v>1.3361436066683611E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3778541182959933E-4</v>
+        <v>2.4513959982432922E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2703666453323571E-5</v>
+        <v>6.2057236902258382E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13577,33 +13577,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7430912819693094</v>
+        <v>3.6696973352640292</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1691484267002878</v>
+        <v>3.4693835408087361</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3397399288599621</v>
+        <v>3.2415122838934924</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4458340141357096</v>
+        <v>3.3145641469305396</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.699888512780436</v>
+        <v>2.7851481500261341</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6337870154306069</v>
+        <v>2.4582012144018996</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13611,43 +13611,43 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9791854611823594</v>
+        <v>2.0781447342414774</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8795872227872299</v>
+        <v>1.9764731621061595</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8049221288628079</v>
+        <v>1.7518361838962548</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.79206214527844</v>
+        <v>1.8268594684877302</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8204144645644784</v>
+        <v>1.7163907808750798</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6720440503769081</v>
+        <v>1.5908768634654078</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5195616012341095</v>
+        <v>1.5995385276148522</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1154064652570637</v>
+        <v>2.0348195522948895</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2425735042164998</v>
+        <v>2.2649992392586649</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.437415423253638</v>
+        <v>2.3202319894433669</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13655,7 +13655,7 @@
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4666917140207536</v>
+        <v>2.3433571283197159</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13663,22 +13663,22 @@
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.787851854742601</v>
+        <v>2.7613008846974338</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.642751761507208</v>
+        <v>2.6699966250279008</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5310571056062319</v>
+        <v>2.6365178183398252</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8900707388239257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2.9198652825231415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -13688,7 +13688,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4521857923497262E-5</v>
+        <v>3.6338797814207646E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,51 +13712,51 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2896921209171766E-2</v>
+        <v>3.425349527965308E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69980124932216869</v>
+        <v>0.68594379884054157</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7110379643844762</v>
+        <v>1.7618608742176785</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3148748654961442</v>
+        <v>2.1787057557610767</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6052895225477433</v>
+        <v>2.4029369382721901</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6254759399280472</v>
+        <v>2.6785158579063912</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2165719696118638</v>
+        <v>2.2858398436622345</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8817956094108914</v>
+        <v>1.8087161682687207</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0206373723157705</v>
+        <v>0.97109186880529608</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22960280556210416</v>
+        <v>0.22522941878949265</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4486609630193811E-3</v>
+        <v>1.3924022848438712E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3778541182959933E-4</v>
+        <v>2.5739657981554569E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13779,7 +13779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4885245901639338E-5</v>
+        <v>3.5975409836065571E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0907622443692663E-5</v>
+        <v>2.048946999481881E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,39 +13813,39 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3914351762032752E-2</v>
+        <v>3.3236064726792094E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70672997456298225</v>
+        <v>0.68594379884054157</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7618608742176785</v>
+        <v>1.6093921447180717</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.292180013873633</v>
+        <v>2.2240954590060995</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6558776686166317</v>
+        <v>2.5547013764788549</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6519958989172192</v>
+        <v>2.5989559809388747</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3089291350123582</v>
+        <v>2.4243755917629763</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7904463079831781</v>
+        <v>1.9000654696964341</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97109186880529608</v>
+        <v>1.0305464730178653</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13853,15 +13853,15 @@
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3502082762122387E-3</v>
+        <v>1.4767903021071361E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4023680782784263E-4</v>
+        <v>2.4268820382608591E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.528938465758434E-5</v>
+        <v>6.6582243759714732E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13880,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9077868852459015E-5</v>
+        <v>1.8896174863387977E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0244734997409405E-5</v>
+        <v>1.0349273109627868E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6787604122206212E-2</v>
+        <v>1.6957175881016376E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13926,43 +13926,43 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1801322843705835</v>
+        <v>1.0893528778805384</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2267625421705393</v>
+        <v>1.2520566152049835</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2862180109748513</v>
+        <v>1.2994779904694373</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1198306304809937</v>
+        <v>1.166009213181241</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90435808413436036</v>
+        <v>0.89522315399158903</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48059138405160062</v>
+        <v>0.51031868615788523</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11042801600844057</v>
+        <v>0.11152136270159345</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3839515105356807E-4</v>
+        <v>7.2433048150969054E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1889270591479966E-4</v>
+        <v>1.2011840391392132E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2967907104324765E-5</v>
+        <v>3.1998262777726981E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13994,9 +13994,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7428961748633879E-5</v>
+        <v>3.4521857923497262E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.048946999481881E-5</v>
+        <v>2.0698546219255736E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,7 +14184,7 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3236064726792094E-2</v>
+        <v>3.2896921209171766E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14196,19 +14196,19 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2240954590060995</v>
+        <v>2.3375697171186554</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6305835955821872</v>
+        <v>2.4282310113066345</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7580757348739082</v>
+        <v>2.5724360219497027</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4012863004128526</v>
+        <v>2.2627505523121112</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14216,23 +14216,23 @@
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97109186880529608</v>
+        <v>0.99091007020948585</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21648264524426963</v>
+        <v>0.20992256508535237</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4345962934755037E-3</v>
+        <v>1.420531623931626E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4268820382608591E-4</v>
+        <v>2.4023680782784263E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2703666453323571E-5</v>
+        <v>6.1410807351193193E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14251,41 +14251,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7797882553219502</v>
+        <v>3.5963033885587485</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3025862551929315</v>
+        <v>3.3359457123160929</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2742548322156493</v>
+        <v>3.4052250255042749</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1832942797253692</v>
+        <v>3.3145641469305396</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9840873035994293</v>
+        <v>2.8704077872718319</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4331175285406554</v>
+        <v>2.6087033295693627</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2705016493944363</v>
+        <v>2.1161957120569497</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8802261881232414</v>
+        <v>1.9198098973468884</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14297,62 +14297,62 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7398661604645049</v>
+        <v>1.8094608068830849</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6470416584154806</v>
+        <v>1.7510653421048796</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5746434260831075</v>
+        <v>1.655810612994608</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6155339128910007</v>
+        <v>1.6795154539955948</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9743793675732593</v>
+        <v>2.0348195522948895</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1304448290056746</v>
+        <v>2.309850709342995</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3905420497295298</v>
+        <v>2.437415423253638</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4645473657819181</v>
+        <v>2.5164325734825903</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.442024796880546</v>
+        <v>2.5160255483011689</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6500919700218857</v>
+        <v>2.39770225859123</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6285460344715954</v>
+        <v>2.655097004516763</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8062209426313651</v>
+        <v>2.642751761507208</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6365178183398252</v>
+        <v>2.7419785310734186</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
         <v>3.1284270884176513</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -14366,7 +14366,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1743927341440371E-5</v>
+        <v>2.0698546219255736E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,7 +14386,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3236064726792094E-2</v>
+        <v>3.5610069350134388E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14394,35 +14394,35 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6602150545512739</v>
+        <v>1.7618608742176785</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1560109041385656</v>
+        <v>2.3148748654961442</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5294073034444109</v>
+        <v>2.5547013764788549</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5459160629605302</v>
+        <v>2.5989559809388747</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2396612609619875</v>
+        <v>2.2858398436622345</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8635257491253487</v>
+        <v>1.7721764476976354</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95127366740110642</v>
+        <v>1.0206373723157705</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22085603201688114</v>
+        <v>0.22960280556210416</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14430,11 +14430,11 @@
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4268820382608591E-4</v>
+        <v>2.3288261983311274E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3996525555453962E-5</v>
+        <v>6.1410807351193193E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14453,7 +14453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7792349726775954E-5</v>
+        <v>3.7428961748633879E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0907622443692663E-5</v>
+        <v>2.0071317545944954E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,35 +14487,35 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3575208244412423E-2</v>
+        <v>3.2896921209171766E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67901507359972801</v>
+        <v>0.67208634835891445</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7110379643844762</v>
+        <v>1.6263331146624724</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.360264568741167</v>
+        <v>2.2014006073835883</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5799954495132993</v>
+        <v>2.4282310113066345</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6785158579063912</v>
+        <v>2.6254759399280472</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3781970090627289</v>
+        <v>2.3089291350123582</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8269860285542634</v>
+        <v>1.73563672712655</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14523,19 +14523,19 @@
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21866933863057539</v>
+        <v>0.2230427254031869</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3783376152999936E-3</v>
+        <v>1.4486609630193811E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4023680782784263E-4</v>
+        <v>2.5004239182081583E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3996525555453962E-5</v>
+        <v>6.3350096004388773E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14554,7 +14554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8532786885245898E-5</v>
+        <v>1.7624316939890707E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0767425558501721E-5</v>
+        <v>1.0871963670720186E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,11 +14588,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.712674763982654E-2</v>
+        <v>1.6448460604585883E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35336498728149113</v>
+        <v>0.35682934990189791</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14600,15 +14600,15 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1007003036917942</v>
+        <v>1.1687848585593277</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2647036517222054</v>
+        <v>1.3152917977910936</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3259979494586096</v>
+        <v>1.3127379699640236</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14616,27 +14616,27 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87695329370604636</v>
+        <v>0.93176287456267437</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51527323650893264</v>
+        <v>0.5004095854557904</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11261470939474633</v>
+        <v>0.10496128254267618</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7510413810611936E-4</v>
+        <v>7.3136281628162925E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2502119591040791E-4</v>
+        <v>1.2747259190865119E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1675048002194387E-5</v>
+        <v>3.2967907104324765E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14668,9 +14668,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14824,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7792349726775954E-5</v>
+        <v>3.5612021857923495E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0698546219255736E-5</v>
+        <v>2.048946999481881E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,27 +14858,27 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3236064726792094E-2</v>
+        <v>3.4931782314893738E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71365869980379582</v>
+        <v>0.65822889787728733</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6093921447180717</v>
+        <v>1.6771560244956747</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1787057557610767</v>
+        <v>2.3375697171186554</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4535250843410785</v>
+        <v>2.4029369382721901</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6519958989172192</v>
+        <v>2.7315557758847357</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14886,27 +14886,27 @@
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.73563672712655</v>
+        <v>1.8635257491253487</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99091007020948585</v>
+        <v>1.0404555737199601</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21210925847165812</v>
+        <v>0.21429595185796388</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3642729457561161E-3</v>
+        <v>1.4767903021071361E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3533401583135605E-4</v>
+        <v>2.3288261983311274E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7228673310779921E-5</v>
+        <v>6.528938465758434E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14925,37 +14925,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6330003619113884</v>
+        <v>3.7063943086166695</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3359457123160929</v>
+        <v>3.3025862551929315</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2742548322156493</v>
+        <v>3.2087697355713356</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1504768129240768</v>
+        <v>3.4130165473344172</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8135680291080329</v>
+        <v>2.8419879081899326</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3829501568181675</v>
+        <v>2.5585359578468747</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.248457944060509</v>
+        <v>2.3145890600622891</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14963,51 +14963,51 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8795872227872299</v>
+        <v>1.8989644106510162</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8049221288628079</v>
+        <v>1.8580080738293612</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.75726482206915</v>
+        <v>1.8094608068830849</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7684026227197791</v>
+        <v>1.7337280614899795</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6071103008477077</v>
+        <v>1.5584099887008074</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5995385276148522</v>
+        <v>1.6315292981671492</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0952597370165202</v>
+        <v>2.054966280535433</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2201477691743348</v>
+        <v>2.309850709342995</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3202319894433669</v>
+        <v>2.2967953026813128</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6461455927342707</v>
+        <v>2.4645473657819181</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.442024796880546</v>
+        <v>2.4173578797403383</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4481802008773612</v>
+        <v>2.5743750565926895</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15015,18 +15015,18 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6972414885485936</v>
+        <v>2.642751761507208</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7683437092568166</v>
+        <v>2.6892481747066217</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8304816514254942</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2.9496598262223568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4885245901639338E-5</v>
+        <v>3.6702185792349721E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0280393770381884E-5</v>
+        <v>2.0071317545944954E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,7 +15060,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3236064726792094E-2</v>
+        <v>3.2896921209171766E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15068,11 +15068,11 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6940969944400754</v>
+        <v>1.7279789343288769</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2694851622511218</v>
+        <v>2.360264568741167</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15080,35 +15080,35 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7050358168955637</v>
+        <v>2.5724360219497027</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2858398436622345</v>
+        <v>2.19348267826174</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.73563672712655</v>
+        <v>1.8269860285542634</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0107282716136756</v>
+        <v>0.99091007020948585</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21429595185796388</v>
+        <v>0.22522941878949265</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4064669543877486E-3</v>
+        <v>1.4345962934755037E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3288261983311274E-4</v>
+        <v>2.5494518381730238E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7228673310779921E-5</v>
+        <v>6.3996525555453962E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5612021857923495E-5</v>
+        <v>3.7792349726775954E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1534851117003441E-5</v>
+        <v>2.0698546219255736E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,39 +15161,39 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3236064726792094E-2</v>
+        <v>3.5270925832514066E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67901507359972801</v>
+        <v>0.67208634835891445</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6432740846068732</v>
+        <v>1.6263331146624724</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1560109041385656</v>
+        <v>2.360264568741167</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4788191573755225</v>
+        <v>2.6305835955821872</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7315557758847357</v>
+        <v>2.7845956938630803</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.19348267826174</v>
+        <v>2.2858398436622345</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8269860285542634</v>
+        <v>1.8817956094108914</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0008191709115808</v>
+        <v>1.0107282716136756</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15201,15 +15201,15 @@
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3642729457561161E-3</v>
+        <v>1.4486609630193811E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3288261983311274E-4</v>
+        <v>2.5494518381730238E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5935814208649529E-5</v>
+        <v>6.2057236902258382E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15228,7 +15228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -15242,7 +15242,7 @@
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0349273109627868E-5</v>
+        <v>1.0035658772972477E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,15 +15262,15 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7635462916257033E-2</v>
+        <v>1.7805034675067194E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36375807514271147</v>
+        <v>0.32911444893864367</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8555189821922381</v>
+        <v>0.82163704230343659</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15282,35 +15282,35 @@
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3922978469315401</v>
+        <v>1.3790378674369541</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1775538588563026</v>
+        <v>1.09674133913087</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92262794441990303</v>
+        <v>0.9134930142771317</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49545503510474292</v>
+        <v>0.48554593440264804</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1137080560878992</v>
+        <v>0.11261470939474633</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6807180333418054E-4</v>
+        <v>6.8916880764999678E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2011840391392132E-4</v>
+        <v>1.2869828990777284E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.264469232879217E-5</v>
+        <v>3.3937551430922555E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15342,9 +15342,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -15575,7 +15575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -15896,9 +15896,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -16450,9 +16450,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -16837,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -17000,13 +17000,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -17017,7 +17017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -17039,7 +17039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -17085,9 +17085,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -17472,7 +17472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -17639,9 +17639,9 @@
       <selection activeCell="B2" sqref="B2:Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>4.8686405297600555</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17920,7 +17920,7 @@
         <v>3.9114480873947568</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>2.6845038533764556</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>1.6460792422335333</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>2.5354678347758233</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>2.3511077638008322</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>2.0178603100386061</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>1.5223291406415769</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -18552,7 +18552,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -18578,7 +18578,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -18604,7 +18604,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -18630,7 +18630,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -18656,7 +18656,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -18682,7 +18682,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -18721,9 +18721,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18901,7 +18901,7 @@
         <v>4.9609583195095368</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19002,7 +19002,7 @@
         <v>3.8374316430182955</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>2.709663884961647</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>1.6612762794444385</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -19305,7 +19305,7 @@
         <v>2.4872859885031668</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>2.3511077638008322</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>1.980030614260694</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -19608,7 +19608,7 @@
         <v>1.5502482130315485</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -19634,7 +19634,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -19660,7 +19660,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -19686,7 +19686,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -19712,7 +19712,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -19738,7 +19738,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -19764,7 +19764,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -19803,9 +19803,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -19882,7 +19882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19983,7 +19983,7 @@
         <v>4.8224816348853148</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20084,7 +20084,7 @@
         <v>3.9484563095829879</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20185,7 +20185,7 @@
         <v>2.6341837902060727</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -20286,7 +20286,7 @@
         <v>1.6308822050226277</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -20387,7 +20387,7 @@
         <v>2.5113769116394948</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>2.3956024086539891</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>1.9800306142606938</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -20690,7 +20690,7 @@
         <v>1.5083696044465911</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -20716,7 +20716,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -20742,7 +20742,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -20768,7 +20768,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -20794,7 +20794,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -20820,7 +20820,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -20846,7 +20846,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -20885,9 +20885,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -20964,7 +20964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>0.73641241094255039</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21166,7 +21166,7 @@
         <v>5.8389447227777773E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21267,7 +21267,7 @@
         <v>-0.59814836674808813</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -21368,7 +21368,7 @@
         <v>-0.72947222968805092</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -21469,7 +21469,7 @@
         <v>-0.12689023775597563</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -21570,7 +21570,7 @@
         <v>0.42122512164164055</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -21671,7 +21671,7 @@
         <v>-0.52436262282163038</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -21772,7 +21772,7 @@
         <v>-0.90624189158622559</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -21798,7 +21798,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -21824,7 +21824,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -21850,7 +21850,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -21876,7 +21876,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -21902,7 +21902,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -21928,7 +21928,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -21967,9 +21967,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -22046,7 +22046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22147,7 +22147,7 @@
         <v>0.74377653505197594</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22248,7 +22248,7 @@
         <v>5.8973341700055547E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22349,7 +22349,7 @@
         <v>-0.61011133408304996</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22450,7 +22450,7 @@
         <v>-0.74406167428181191</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -22551,7 +22551,7 @@
         <v>-0.12689023775597563</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -22652,7 +22652,7 @@
         <v>0.42964962407447338</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -22753,7 +22753,7 @@
         <v>-0.52960624904984666</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>-0.91530431050208783</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -22880,7 +22880,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -22906,7 +22906,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -22932,7 +22932,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -22958,7 +22958,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -22984,7 +22984,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -23010,7 +23010,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -23049,9 +23049,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -23128,7 +23128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23229,7 +23229,7 @@
         <v>0.7216841627236994</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23330,7 +23330,7 @@
         <v>5.7805552755499999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23431,7 +23431,7 @@
         <v>-0.6041298504155691</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -23532,7 +23532,7 @@
         <v>-0.72217750739117037</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -23633,7 +23633,7 @@
         <v>-0.12815914013353541</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -23734,7 +23734,7 @@
         <v>0.41701287042522411</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -23835,7 +23835,7 @@
         <v>-0.53484987527806305</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -23936,7 +23936,7 @@
         <v>-0.92436672941795006</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -23962,7 +23962,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -23988,7 +23988,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -24014,7 +24014,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -24040,7 +24040,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -24066,7 +24066,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -24092,7 +24092,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -24131,9 +24131,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -24210,7 +24210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -24311,7 +24311,7 @@
         <v>0.27712178115862884</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -24412,7 +24412,7 @@
         <v>0.2309348176321907</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -24513,7 +24513,7 @@
         <v>0.18474785410575256</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -24614,7 +24614,7 @@
         <v>0.13856089057931442</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -24715,7 +24715,7 @@
         <v>0.13856089057931442</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -24816,7 +24816,7 @@
         <v>0.13856089057931442</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -24917,7 +24917,7 @@
         <v>0.13856089057931442</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -25018,7 +25018,7 @@
         <v>0.13856089057931442</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -25044,7 +25044,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -25070,7 +25070,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -25096,7 +25096,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -25122,7 +25122,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -25148,7 +25148,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -25174,7 +25174,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -25213,9 +25213,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -25292,7 +25292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -25393,7 +25393,7 @@
         <v>0.80241667575423858</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -25494,7 +25494,7 @@
         <v>0.66868056312853208</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -25595,7 +25595,7 @@
         <v>0.53494445050282569</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>0.40120833787711929</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -25797,7 +25797,7 @@
         <v>0.40120833787711929</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -25898,7 +25898,7 @@
         <v>0.40120833787711929</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -25999,7 +25999,7 @@
         <v>0.40120833787711929</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -26100,7 +26100,7 @@
         <v>0.40120833787711929</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -26126,7 +26126,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -26152,7 +26152,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -26178,7 +26178,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -26204,7 +26204,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -26230,7 +26230,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -26256,7 +26256,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -26295,9 +26295,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -26374,7 +26374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26451,7 +26451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4765765027322405E-5</v>
+        <v>4.7996284153005466E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6607040321843284E-5</v>
+        <v>2.5816732193471701E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.312926509245342E-2</v>
+        <v>4.0592249498779688E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89182465870187089</v>
+        <v>0.83936438466058427</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1789620309824906</v>
+        <v>2.1573881494876144</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9649878168595403</v>
+        <v>2.9940563248679668</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1019935425019263</v>
+        <v>3.2618901168576961</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2002315986656762</v>
+        <v>3.3012915438866979</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8902572871946082</v>
+        <v>3.0967042362799373</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1815510705365155</v>
+        <v>2.2504421569745108</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2791966934405288</v>
+        <v>1.2046803812012747</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2777421982465279</v>
+        <v>0.28885188617638902</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.791224787173195E-3</v>
+        <v>1.7209806778722854E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0978278869891194E-4</v>
+        <v>3.0677518880863124E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8217975678888173E-5</v>
+        <v>8.1346694706043698E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26552,53 +26552,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8582358069257161</v>
+        <v>2.6676867531306683</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3701278646266011</v>
+        <v>2.3461871791253222</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.381360658515788</v>
+        <v>2.5066954300166193</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4873786045450097</v>
+        <v>2.3424827635035528</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2167505683881479</v>
+        <v>2.0888611125196008</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9030640178672849</v>
+        <v>1.9601559384033034</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7464387682832365</v>
+        <v>1.6950729221572587</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5977342931742362</v>
+        <v>1.5670086336901163</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.422080477019551</v>
+        <v>1.4505220865599422</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2549968118278139</v>
+        <v>1.3203612291105125</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3046073062991106</v>
+        <v>1.2646703479430155</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26610,11 +26610,11 @@
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2518090350633864</v>
+        <v>1.1788881203994996</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5670149700787341</v>
+        <v>1.4177754491188548</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26622,7 +26622,7 @@
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.651395697157936</v>
+        <v>1.685097650161159</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26630,11 +26630,11 @@
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9011895772153018</v>
+        <v>1.8830830098132512</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9272762223051392</v>
+        <v>1.9839608170788197</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26642,7 +26642,7 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9347713467818948</v>
+        <v>1.9549252149775396</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26650,10 +26650,10 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2135220568395768</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2.1240868222197959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6150273224043715E-5</v>
+        <v>4.5227267759562839E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6343604279052755E-5</v>
+        <v>2.6607040321843284E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,11 +26687,11 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1437921363337599E-2</v>
+        <v>4.312926509245342E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83936438466058427</v>
+        <v>0.85685114267434648</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26699,31 +26699,31 @@
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8777822928342593</v>
+        <v>2.8487137848258324</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1339728573730801</v>
+        <v>3.1979314871153881</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.334978192293705</v>
+        <v>3.4360381375147262</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9787345510883205</v>
+        <v>2.9197497084925126</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.319333243412506</v>
+        <v>2.227478461495179</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2543579226941108</v>
+        <v>1.1798416104548566</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28051962022899318</v>
+        <v>0.27218735428159735</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26731,11 +26731,11 @@
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9173718935722774E-4</v>
+        <v>3.0376758891835054E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1346694706043698E-5</v>
+        <v>7.5089256651732648E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26754,7 +26754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -26768,7 +26768,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5816732193471701E-5</v>
+        <v>2.6343604279052755E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1437921363337599E-2</v>
+        <v>4.312926509245342E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83936438466058427</v>
+        <v>0.83062100565370323</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.092666505002986</v>
+        <v>2.0710926235081097</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7905767688089789</v>
+        <v>2.9940563248679668</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3578280614711575</v>
+        <v>3.2938694317288499</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4023514891077191</v>
+        <v>3.2339182470726833</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9787345510883205</v>
+        <v>3.0967042362799373</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3422969388918378</v>
+        <v>2.2963695479331743</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2791966934405288</v>
+        <v>1.2543579226941108</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27218735428159735</v>
+        <v>0.28607446419392374</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7736637598479677E-3</v>
+        <v>1.7561027325227402E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9173718935722774E-4</v>
+        <v>3.0978278869891194E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9000155435677061E-5</v>
+        <v>7.430707689494376E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26855,7 +26855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3767390710382512E-5</v>
+        <v>2.3075136612021857E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3830392246502697E-5</v>
+        <v>1.3040084118131113E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.050754271552932E-2</v>
+        <v>2.1141796613947755E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43716895034405434</v>
+        <v>0.43279726084061382</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0355463117540549</v>
+        <v>1.1218418377335595</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3807541304002759</v>
+        <v>1.4388911464171297</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.646934715864425</v>
+        <v>1.5509967712509631</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7180190687573631</v>
+        <v>1.6506457719433489</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5041134861931125</v>
+        <v>1.4893672755441603</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1941121649252506</v>
+        <v>1.1481847739665871</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59613049791403283</v>
+        <v>0.61475957597384634</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14164852110572923</v>
+        <v>0.14442594308819451</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2195393457443866E-4</v>
+        <v>8.6927085259875636E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5489139434945597E-4</v>
+        <v>1.5789899423973667E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8717897961049643E-5</v>
+        <v>3.7935718204260761E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26969,9 +26969,9 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -26982,7 +26982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -27004,7 +27004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -27050,9 +27050,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -27129,7 +27129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27206,7 +27206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7534781420765025E-5</v>
+        <v>4.6611775956284149E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.687047636463381E-5</v>
+        <v>2.6080168236262226E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,35 +27240,35 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3552101024732379E-2</v>
+        <v>4.0169413566500729E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88308127969498973</v>
+        <v>0.83062100565370323</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0495187420132335</v>
+        <v>2.1789620309824906</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9359193088511133</v>
+        <v>2.9940563248679668</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0380349127596187</v>
+        <v>3.2938694317288499</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2002315986656762</v>
+        <v>3.4360381375147262</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9197497084925126</v>
+        <v>3.0672118149820333</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.227478461495179</v>
+        <v>2.3652606343711695</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27276,15 +27276,15 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26385508833420152</v>
+        <v>0.2777421982465279</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6858586232218306E-3</v>
+        <v>1.7736637598479677E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0978278869891194E-4</v>
+        <v>2.8872958946694704E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27307,73 +27307,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6676867531306683</v>
+        <v>2.6404654597313755</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4419499211304379</v>
+        <v>2.4180092356291585</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5317623843167856</v>
+        <v>2.6320302015174506</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5356772182254952</v>
+        <v>2.3183334566633098</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1741207497652986</v>
+        <v>2.0888611125196008</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9220946580459577</v>
+        <v>1.8650027375099392</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7464387682832365</v>
+        <v>1.6608290247399404</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4594688254956965</v>
+        <v>1.5670086336901163</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.478963696100333</v>
+        <v>1.4931845008705285</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2680696952843538</v>
+        <v>1.346506996023592</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2646703479430155</v>
+        <v>1.3711689035592696</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.285704827260818</v>
+        <v>1.3499900686238591</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2469477619013987</v>
+        <v>1.1510287032935986</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2761160066180153</v>
+        <v>1.1910416061768141</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4625473054068185</v>
+        <v>1.5371670658867584</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6572109925989178</v>
+        <v>1.7074295075261576</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27381,23 +27381,23 @@
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9223707481277084</v>
+        <v>1.8652706268961921</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7201239031947966</v>
+        <v>1.8106567402050491</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7950121678332178</v>
+        <v>1.9083813573805788</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1575046466714727</v>
+        <v>2.0952689357097958</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0355406877601188</v>
+        <v>2.0960022923470527</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27405,10 +27405,10 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1464456308747413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2.2582396741494675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -27422,7 +27422,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5026424065100117E-5</v>
+        <v>2.5816732193471701E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,11 +27442,11 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4397772889290289E-2</v>
+        <v>4.0592249498779688E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85685114267434648</v>
+        <v>0.91805479572251414</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27454,7 +27454,7 @@
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7905767688089789</v>
+        <v>2.9359193088511133</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27462,15 +27462,15 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.334978192293705</v>
+        <v>3.3012915438866979</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9787345510883205</v>
+        <v>2.8017800233008958</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3422969388918378</v>
+        <v>2.2734058524538425</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27478,11 +27478,11 @@
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29162930815885429</v>
+        <v>0.28607446419392374</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7736637598479677E-3</v>
+        <v>1.791224787173195E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27490,7 +27490,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9782335192465936E-5</v>
+        <v>7.9000155435677061E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7073278688524591E-5</v>
+        <v>4.6611775956284149E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5289860107890643E-5</v>
+        <v>2.7133912407424339E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4397772889290289E-2</v>
+        <v>4.2706429160174468E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84810776366746543</v>
+        <v>0.90056803770875193</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1789620309824906</v>
+        <v>2.2005359124773669</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9359193088511133</v>
+        <v>3.0521933408848207</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3258487466000037</v>
+        <v>3.1339728573730801</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2002315986656762</v>
+        <v>3.4697247859217333</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0967042362799373</v>
+        <v>2.8607648658967042</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1815510705365155</v>
+        <v>2.2734058524538425</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2791966934405288</v>
+        <v>1.2667773080673199</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27496477626406263</v>
+        <v>0.27218735428159735</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7209806778722854E-3</v>
+        <v>1.6682975958966031E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8872958946694704E-4</v>
+        <v>3.0677518880863124E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9782335192465936E-5</v>
+        <v>7.7435795922099285E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27610,7 +27610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3998142076502733E-5</v>
+        <v>2.2152131147540982E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3435238182316905E-5</v>
+        <v>1.2513212032550058E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1353214580087234E-2</v>
+        <v>2.0930378647808275E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45902739786125707</v>
+        <v>0.43279726084061382</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0247593710066167</v>
+        <v>1.0894810154912453</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5260966704424104</v>
+        <v>1.3807541304002759</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5509967712509631</v>
+        <v>1.614955400993271</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.684332420350356</v>
+        <v>1.7011757445538596</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4598748542462563</v>
+        <v>1.4156362222993999</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1826303171855848</v>
+        <v>1.1022573830079236</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63959834672026439</v>
+        <v>0.64580803940686893</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1333162551583334</v>
+        <v>0.13470496614956604</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9561239358659751E-4</v>
+        <v>8.6049033893614271E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4286099478833317E-4</v>
+        <v>1.4586859467861387E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9891167596232968E-5</v>
+        <v>3.8717897961049643E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27724,9 +27724,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -27803,7 +27803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27880,7 +27880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -27890,7 +27890,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7534781420765025E-5</v>
+        <v>4.4765765027322405E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,47 +27914,47 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.312926509245342E-2</v>
+        <v>4.3552101024732379E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83936438466058427</v>
+        <v>0.84810776366746543</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1142403864978618</v>
+        <v>2.2005359124773669</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9649878168595403</v>
+        <v>2.7905767688089789</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1659521722442343</v>
+        <v>3.1339728573730801</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5034114343287408</v>
+        <v>3.2676048954796908</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9492421297904166</v>
+        <v>2.8902572871946082</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1815510705365155</v>
+        <v>2.3882243298505013</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2295191519476927</v>
+        <v>1.2791966934405288</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29162930815885429</v>
+        <v>0.27496477626406263</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7561027325227402E-3</v>
+        <v>1.791224787173195E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27962,7 +27962,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.665361616531041E-5</v>
+        <v>7.7435795922099285E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27981,108 +27981,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6676867531306683</v>
+        <v>2.6404654597313755</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4419499211304379</v>
+        <v>2.4180092356291585</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4314945671161206</v>
+        <v>2.4565615214162868</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3183334566633098</v>
+        <v>2.3424827635035528</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1314909311424497</v>
+        <v>2.0675462032081762</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9982172187606491</v>
+        <v>1.9411252982246305</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6437070760312813</v>
+        <v>1.7806826657005548</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5823714634321762</v>
+        <v>1.5209201444639362</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4078596722493555</v>
+        <v>1.478963696100333</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2811425787408934</v>
+        <v>1.3595798794801317</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3711689035592696</v>
+        <v>1.3179196257511425</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2342766341703852</v>
+        <v>1.221419585897777</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1390388209676237</v>
+        <v>1.2109781149234735</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2518090350633864</v>
+        <v>1.2275020635087575</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5073191616947823</v>
+        <v>1.4774712575028066</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6237319826474246</v>
+        <v>1.7074295075261576</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.685097650161159</v>
+        <v>1.7187996031643822</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9985042431030633</v>
+        <v>1.9604374956153858</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9011895772153018</v>
+        <v>1.8649764424112008</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9839608170788197</v>
+        <v>1.8328018976823381</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1160141726970214</v>
+        <v>2.0952689357097958</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.015386819564474</v>
+        <v>1.9952329513688289</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0147983123207371</v>
+        <v>2.0740570862125232</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1688044395296866</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2.2805984828044124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4304262295081964E-5</v>
+        <v>4.6611775956284149E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7660784493005394E-5</v>
+        <v>2.7133912407424339E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,15 +28116,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.312926509245342E-2</v>
+        <v>4.1437921363337599E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86559452168122764</v>
+        <v>0.90056803770875193</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0710926235081097</v>
+        <v>2.092666505002986</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28144,27 +28144,27 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3652606343711695</v>
+        <v>2.227478461495179</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2046803812012747</v>
+        <v>1.1922609958280657</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26940993229913207</v>
+        <v>0.28329704221145846</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.791224787173195E-3</v>
+        <v>1.7736637598479677E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8572198957666634E-4</v>
+        <v>2.9474478924750844E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9000155435677061E-5</v>
+        <v>7.665361616531041E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28183,7 +28183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7534781420765025E-5</v>
+        <v>4.7073278688524591E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6080168236262226E-5</v>
+        <v>2.5816732193471701E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,11 +28217,11 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0169413566500729E-2</v>
+        <v>4.101508543105864E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84810776366746543</v>
+        <v>0.83062100565370323</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28229,43 +28229,43 @@
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7905767688089789</v>
+        <v>2.9940563248679668</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3578280614711575</v>
+        <v>3.0380349127596187</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5370980827357479</v>
+        <v>3.2676048954796908</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8312724445987998</v>
+        <v>2.8017800233008958</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3652606343711695</v>
+        <v>2.2734058524538425</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2791966934405288</v>
+        <v>1.2419385373209018</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26663251031666679</v>
+        <v>0.2777421982465279</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7034196505470579E-3</v>
+        <v>1.6858586232218306E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0978278869891194E-4</v>
+        <v>3.1279038858919264E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5871436408521522E-5</v>
+        <v>8.2128874462832587E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -28298,7 +28298,7 @@
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3435238182316905E-5</v>
+        <v>1.3040084118131113E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,7 +28318,7 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.050754271552932E-2</v>
+        <v>2.0084706783250365E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28326,47 +28326,47 @@
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1326287784809976</v>
+        <v>1.0786940747438072</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4388911464171297</v>
+        <v>1.5260966704424104</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.614955400993271</v>
+        <v>1.5829760861221172</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7011757445538596</v>
+        <v>1.7348623929608666</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4303824329483521</v>
+        <v>1.4598748542462563</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1137392307475895</v>
+        <v>1.1022573830079236</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61475957597384634</v>
+        <v>0.60234019060063737</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14442594308819451</v>
+        <v>0.13470496614956604</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6049033893614271E-4</v>
+        <v>8.5170982527352896E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4436479473347352E-4</v>
+        <v>1.4286099478833317E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8326808082655205E-5</v>
+        <v>4.1064437231416293E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28398,9 +28398,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -28477,7 +28477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -28554,7 +28554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -28631,7 +28631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -28708,7 +28708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -28862,7 +28862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -28952,9 +28952,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -29031,7 +29031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -29108,7 +29108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -29185,7 +29185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -29262,7 +29262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -29339,7 +29339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -29416,7 +29416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -29506,9 +29506,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -29585,7 +29585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -29662,7 +29662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -29739,7 +29739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -29816,7 +29816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -29893,7 +29893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -29970,7 +29970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -30060,9 +30060,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -30139,7 +30139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -30216,7 +30216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -30293,7 +30293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -30370,7 +30370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -30447,7 +30447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -30524,7 +30524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -30614,9 +30614,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -30624,7 +30624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -30633,7 +30633,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -30642,7 +30642,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -30651,7 +30651,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -30660,7 +30660,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -30669,7 +30669,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -30678,7 +30678,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -30687,7 +30687,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -30709,12 +30709,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -30791,7 +30791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -30892,7 +30892,7 @@
         <v>1.2637552114299282</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -30993,7 +30993,7 @@
         <v>-2.7483281673412643</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -31107,9 +31107,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -31186,7 +31186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -31287,7 +31287,7 @@
         <v>4.7282404612297979</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -31388,7 +31388,7 @@
         <v>3.566593578318157</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -31489,7 +31489,7 @@
         <v>2.4181250499323053</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -31590,7 +31590,7 @@
         <v>1.2873412868008898</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -31691,7 +31691,7 @@
         <v>2.3485490281875174</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -31792,7 +31792,7 @@
         <v>2.3057709040754584</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -31893,7 +31893,7 @@
         <v>2.0432218973531477</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -31994,7 +31994,7 @@
         <v>1.6008034068166794</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -32020,7 +32020,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -32046,7 +32046,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -32072,7 +32072,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -32098,7 +32098,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -32124,7 +32124,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -32150,7 +32150,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -32189,9 +32189,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -32268,7 +32268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>4.772995355419237</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -32470,7 +32470,7 @@
         <v>3.6001532554156221</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -32571,7 +32571,7 @@
         <v>2.4631175370338045</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -32672,7 +32672,7 @@
         <v>1.3105606021140475</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -32773,7 +32773,7 @@
         <v>2.3707707632579624</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -32874,7 +32874,7 @@
         <v>2.3057709040754584</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -32975,7 +32975,7 @@
         <v>2.0432218973531477</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -33076,7 +33076,7 @@
         <v>1.6155476856734161</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -33102,7 +33102,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -33128,7 +33128,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -33154,7 +33154,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -33180,7 +33180,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -33206,7 +33206,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -33232,7 +33232,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -33271,9 +33271,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -33350,7 +33350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -33451,7 +33451,7 @@
         <v>4.6834855670403597</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -33552,7 +33552,7 @@
         <v>3.6001532554156221</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -33653,7 +33653,7 @@
         <v>2.4181250499323053</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -33754,7 +33754,7 @@
         <v>1.3105606021140475</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -33855,7 +33855,7 @@
         <v>2.3041055580466265</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -33956,7 +33956,7 @@
         <v>2.3057709040754584</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -34057,7 +34057,7 @@
         <v>2.0048849698289448</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -34158,7 +34158,7 @@
         <v>1.6155476856734161</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -34184,7 +34184,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -34210,7 +34210,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -34236,7 +34236,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -34262,7 +34262,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -34288,7 +34288,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -34314,7 +34314,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -34353,9 +34353,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -34432,7 +34432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -34533,7 +34533,7 @@
         <v>0.45661407286808225</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -34634,7 +34634,7 @@
         <v>-1.1990640553109109</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -34735,7 +34735,7 @@
         <v>-0.94299210662085098</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -34836,7 +34836,7 @@
         <v>-0.824145934257004</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -34937,7 +34937,7 @@
         <v>-0.63537402146332134</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -35038,7 +35038,7 @@
         <v>0.3337938052715248</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -35139,7 +35139,7 @@
         <v>-0.75031249752842288</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -35240,7 +35240,7 @@
         <v>-0.90048676759060953</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -35266,7 +35266,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -35292,7 +35292,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -35318,7 +35318,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -35344,7 +35344,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -35370,7 +35370,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -35396,7 +35396,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
